--- a/TP5/Excel final - Grupo 9 - 4K3 - SIM - UTN FRC.xlsx
+++ b/TP5/Excel final - Grupo 9 - 4K3 - SIM - UTN FRC.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldovich\Descargas\sim-grupo9\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AB773-9CC3-45F2-865E-3E33EAD0DAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE4682B-352E-425F-BD33-00B978C5BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP5 - Grupo 9 - Vector Estado" sheetId="4" r:id="rId1"/>
     <sheet name="TP 5 - Grupo 9 - Euler" sheetId="5" r:id="rId2"/>
+    <sheet name="Euler Python" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="h" localSheetId="2">'Euler Python'!$E$12</definedName>
     <definedName name="h">'TP 5 - Grupo 9 - Euler'!$E$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="143">
   <si>
     <t>RND</t>
   </si>
@@ -711,21 +713,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -740,22 +746,18 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,7 +1030,7 @@
   </sheetPr>
   <dimension ref="A2:CA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1123,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="26"/>
@@ -1138,7 +1140,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="30"/>
+      <c r="N4" s="32"/>
       <c r="O4" s="26"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1167,7 +1169,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="30"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
@@ -1188,7 +1190,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="30"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
@@ -1200,7 +1202,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="26"/>
@@ -1248,7 +1250,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="30"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
@@ -1269,7 +1271,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="30"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -1281,7 +1283,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="26"/>
@@ -1327,7 +1329,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="30"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
@@ -1360,7 +1362,7 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="26"/>
@@ -1375,7 +1377,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="30"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
@@ -1423,7 +1425,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="30"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -1476,7 +1478,7 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="26"/>
@@ -1585,18 +1587,18 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="AC22" s="24" t="s">
+      <c r="AC22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="AD22" s="31" t="s">
+      <c r="AD22" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="AE22" s="24" t="s">
+      <c r="AE22" s="37" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="32" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="26"/>
@@ -1620,12 +1622,12 @@
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
-      <c r="AG23" s="24" t="s">
+      <c r="AG23" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
     </row>
     <row r="24" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -1661,10 +1663,10 @@
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
@@ -1685,17 +1687,17 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="27" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="M25" s="26"/>
@@ -1703,7 +1705,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="38" t="s">
         <v>27</v>
       </c>
       <c r="S25" s="26"/>
@@ -1711,7 +1713,7 @@
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
-      <c r="X25" s="27" t="s">
+      <c r="X25" s="39" t="s">
         <v>28</v>
       </c>
       <c r="Y25" s="26"/>
@@ -1724,17 +1726,17 @@
       <c r="AD25" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="AE25" s="36" t="s">
+      <c r="AE25" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="AF25" s="34" t="s">
+      <c r="AF25" s="36" t="s">
         <v>30</v>
       </c>
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
       <c r="AJ25" s="26"/>
-      <c r="AK25" s="33" t="s">
+      <c r="AK25" s="35" t="s">
         <v>31</v>
       </c>
       <c r="AL25" s="26"/>
@@ -1791,10 +1793,10 @@
       <c r="F26" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="30" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="28" t="s">
@@ -1803,7 +1805,7 @@
       <c r="J26" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="30" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="28" t="s">
@@ -1812,16 +1814,16 @@
       <c r="M26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="35" t="s">
+      <c r="N26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="35" t="s">
+      <c r="O26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="R26" s="28" t="s">
@@ -1830,16 +1832,16 @@
       <c r="S26" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="35" t="s">
+      <c r="T26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="U26" s="35" t="s">
+      <c r="U26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="35" t="s">
+      <c r="V26" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="W26" s="35" t="s">
+      <c r="W26" s="30" t="s">
         <v>44</v>
       </c>
       <c r="X26" s="10" t="s">
@@ -1860,19 +1862,19 @@
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
-      <c r="AF26" s="29" t="s">
+      <c r="AF26" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AG26" s="31" t="s">
+      <c r="AG26" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AH26" s="31" t="s">
+      <c r="AH26" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AI26" s="31" t="s">
+      <c r="AI26" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AJ26" s="31" t="s">
+      <c r="AJ26" s="33" t="s">
         <v>109</v>
       </c>
       <c r="AK26" s="28" t="s">
@@ -8935,40 +8937,30 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="AS26:AT26"/>
-    <mergeCell ref="BE26:BF26"/>
-    <mergeCell ref="BC26:BD26"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="BI26:BJ26"/>
-    <mergeCell ref="BG26:BH26"/>
-    <mergeCell ref="BA26:BB26"/>
-    <mergeCell ref="AY26:AZ26"/>
-    <mergeCell ref="AU26:AV26"/>
-    <mergeCell ref="BW26:BX26"/>
-    <mergeCell ref="BU26:BV26"/>
-    <mergeCell ref="BM26:BN26"/>
-    <mergeCell ref="BK26:BL26"/>
-    <mergeCell ref="BS26:BT26"/>
-    <mergeCell ref="BQ26:BR26"/>
-    <mergeCell ref="BO26:BP26"/>
+    <mergeCell ref="AG23:AJ24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="AW26:AX26"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="N11:T11"/>
     <mergeCell ref="N15:T15"/>
     <mergeCell ref="N13:T13"/>
     <mergeCell ref="AO26:AP26"/>
@@ -8985,30 +8977,40 @@
     <mergeCell ref="AE22:AE24"/>
     <mergeCell ref="AC25:AC27"/>
     <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="AW26:AX26"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="AG23:AJ24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AB25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="BW26:BX26"/>
+    <mergeCell ref="BU26:BV26"/>
+    <mergeCell ref="BM26:BN26"/>
+    <mergeCell ref="BK26:BL26"/>
+    <mergeCell ref="BS26:BT26"/>
+    <mergeCell ref="BQ26:BR26"/>
+    <mergeCell ref="BO26:BP26"/>
+    <mergeCell ref="BI26:BJ26"/>
+    <mergeCell ref="BG26:BH26"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="AY26:AZ26"/>
+    <mergeCell ref="AU26:AV26"/>
+    <mergeCell ref="AS26:AT26"/>
+    <mergeCell ref="BE26:BF26"/>
+    <mergeCell ref="BC26:BD26"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9016,10 +9018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CDAF9A-5CF4-466C-B984-E3EEAA63290B}">
-  <dimension ref="C11:W63"/>
+  <dimension ref="C11:W94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9028,7 +9030,7 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="3:23" x14ac:dyDescent="0.2">
@@ -9181,7 +9183,7 @@
         <f>Q11</f>
         <v>1000</v>
       </c>
-      <c r="U16" s="40"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
@@ -9194,7 +9196,7 @@
         <v>2000</v>
       </c>
       <c r="E17" s="20">
-        <f>-68-(D17^2/G16)</f>
+        <f>-68-(D17^2/2000)</f>
         <v>-2068</v>
       </c>
       <c r="F17" s="20">
@@ -9213,7 +9215,7 @@
         <v>1500</v>
       </c>
       <c r="K17" s="20">
-        <f>-68-(J17^2/M16)</f>
+        <f>-68-(J17^2/1500)</f>
         <v>-1568</v>
       </c>
       <c r="L17" s="20">
@@ -9232,7 +9234,7 @@
         <v>1000</v>
       </c>
       <c r="Q17" s="20">
-        <f>-68-(P17^2/S16)</f>
+        <f>-68-(P17^2/1000)</f>
         <v>-1068</v>
       </c>
       <c r="R17" s="20">
@@ -9243,7 +9245,7 @@
         <f>P17+h*Q17</f>
         <v>893.2</v>
       </c>
-      <c r="U17" s="40"/>
+      <c r="U17" s="24"/>
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
     </row>
@@ -9256,16 +9258,16 @@
         <v>1793.2</v>
       </c>
       <c r="E18" s="20">
-        <f>-68-(D18^2/G17)</f>
-        <v>-1861.2</v>
+        <f t="shared" ref="E18:E94" si="3">-68-(D18^2/2000)</f>
+        <v>-1675.7831200000001</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F18:F49" si="4">C18+h</f>
         <v>0.2</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" ref="G18:G50" si="3">D18+h*E18</f>
-        <v>1607.08</v>
+        <f>D18+h*E18</f>
+        <v>1625.6216879999999</v>
       </c>
       <c r="I18" s="20" cm="1">
         <f t="array" ref="I18:J18">L17:M17</f>
@@ -9275,16 +9277,16 @@
         <v>1343.2</v>
       </c>
       <c r="K18" s="20">
-        <f>-68-(J18^2/M17)</f>
-        <v>-1411.2</v>
+        <f t="shared" ref="K18:K79" si="5">-68-(J18^2/1500)</f>
+        <v>-1270.7908266666668</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L18:L49" si="6">I18+h</f>
         <v>0.2</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" ref="M18" si="4">J18+h*K18</f>
-        <v>1202.08</v>
+        <f>J18+h*K18</f>
+        <v>1216.1209173333334</v>
       </c>
       <c r="O18" s="20" cm="1">
         <f t="array" ref="O18:P18">R17:S17</f>
@@ -9294,18 +9296,18 @@
         <v>893.2</v>
       </c>
       <c r="Q18" s="20">
-        <f>-68-(P18^2/S17)</f>
-        <v>-961.2</v>
+        <f t="shared" ref="Q18:Q67" si="7">-68-(P18^2/1000)</f>
+        <v>-865.80624000000012</v>
       </c>
       <c r="R18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R18:R46" si="8">O18+h</f>
         <v>0.2</v>
       </c>
       <c r="S18" s="20">
-        <f t="shared" ref="S18" si="5">P18+h*Q18</f>
-        <v>797.08</v>
-      </c>
-      <c r="U18" s="40"/>
+        <f>P18+h*Q18</f>
+        <v>806.61937599999999</v>
+      </c>
+      <c r="U18" s="24"/>
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
     </row>
@@ -9315,57 +9317,57 @@
         <v>0.2</v>
       </c>
       <c r="D19" s="20">
-        <v>1607.08</v>
+        <v>1625.6216879999999</v>
       </c>
       <c r="E19" s="20">
-        <f t="shared" ref="E19:E23" si="6">-68-(D19^2/G18)</f>
-        <v>-1675.0800000000002</v>
+        <f t="shared" si="3"/>
+        <v>-1389.3229362479847</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="3"/>
-        <v>1439.5719999999999</v>
+        <f>D19+h*E19</f>
+        <v>1486.6893943752016</v>
       </c>
       <c r="I19" s="20" cm="1">
         <f t="array" ref="I19:J19">L18:M18</f>
         <v>0.2</v>
       </c>
       <c r="J19" s="20">
-        <v>1202.08</v>
+        <v>1216.1209173333334</v>
       </c>
       <c r="K19" s="20">
-        <f t="shared" ref="K19:K31" si="7">-68-(J19^2/M18)</f>
-        <v>-1270.08</v>
+        <f t="shared" si="5"/>
+        <v>-1053.9667237171122</v>
       </c>
       <c r="L19" s="20">
-        <f t="shared" ref="L19:L32" si="8">I19+h</f>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" ref="M19:M32" si="9">J19+h*K19</f>
-        <v>1075.0719999999999</v>
+        <f>J19+h*K19</f>
+        <v>1110.7242449616222</v>
       </c>
       <c r="O19" s="20" cm="1">
         <f t="array" ref="O19:P19">R18:S18</f>
         <v>0.2</v>
       </c>
       <c r="P19" s="20">
-        <v>797.08</v>
+        <v>806.61937599999999</v>
       </c>
       <c r="Q19" s="20">
-        <f t="shared" ref="Q19:Q25" si="10">-68-(P19^2/S18)</f>
-        <v>-865.08</v>
+        <f t="shared" si="7"/>
+        <v>-718.63481773862941</v>
       </c>
       <c r="R19" s="20">
-        <f t="shared" ref="R19:R26" si="11">O19+h</f>
+        <f t="shared" si="8"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="S19" s="20">
-        <f t="shared" ref="S19:S26" si="12">P19+h*Q19</f>
-        <v>710.572</v>
+        <f>P19+h*Q19</f>
+        <v>734.755894226137</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.2">
@@ -9374,57 +9376,57 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D20" s="20">
-        <v>1439.5719999999999</v>
+        <v>1486.6893943752016</v>
       </c>
       <c r="E20" s="20">
-        <f t="shared" si="6"/>
-        <v>-1507.5719999999999</v>
+        <f t="shared" si="3"/>
+        <v>-1173.1226776738517</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="3"/>
-        <v>1288.8147999999999</v>
+        <f>D20+h*E20</f>
+        <v>1369.3771266078163</v>
       </c>
       <c r="I20" s="20" cm="1">
         <f t="array" ref="I20:J20">L19:M19</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="J20" s="20">
-        <v>1075.0719999999999</v>
+        <v>1110.7242449616222</v>
       </c>
       <c r="K20" s="20">
-        <f t="shared" si="7"/>
-        <v>-1143.0719999999999</v>
+        <f t="shared" si="5"/>
+        <v>-890.47223223037702</v>
       </c>
       <c r="L20" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="M20" s="20">
-        <f t="shared" si="9"/>
-        <v>960.76479999999992</v>
+        <f>J20+h*K20</f>
+        <v>1021.6770217385845</v>
       </c>
       <c r="O20" s="20" cm="1">
         <f t="array" ref="O20:P20">R19:S19</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="P20" s="20">
-        <v>710.572</v>
+        <v>734.755894226137</v>
       </c>
       <c r="Q20" s="20">
-        <f t="shared" si="10"/>
-        <v>-778.572</v>
+        <f t="shared" si="7"/>
+        <v>-607.86622410005032</v>
       </c>
       <c r="R20" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="S20" s="20">
-        <f t="shared" si="12"/>
-        <v>632.71479999999997</v>
+        <f>P20+h*Q20</f>
+        <v>673.96927181613194</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
@@ -9433,57 +9435,57 @@
         <v>0.4</v>
       </c>
       <c r="D21" s="20">
-        <v>1288.8147999999999</v>
+        <v>1369.3771266078163</v>
       </c>
       <c r="E21" s="20">
-        <f t="shared" si="6"/>
-        <v>-1356.8147999999999</v>
+        <f t="shared" si="3"/>
+        <v>-1005.5968574383397</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" si="3"/>
-        <v>1153.1333199999999</v>
+        <f>D21+h*E21</f>
+        <v>1268.8174408639823</v>
       </c>
       <c r="I21" s="20" cm="1">
         <f t="array" ref="I21:J21">L20:M20</f>
         <v>0.4</v>
       </c>
       <c r="J21" s="20">
-        <v>960.76479999999992</v>
+        <v>1021.6770217385845</v>
       </c>
       <c r="K21" s="20">
-        <f t="shared" si="7"/>
-        <v>-1028.7647999999999</v>
+        <f t="shared" si="5"/>
+        <v>-763.88262449908268</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" si="9"/>
-        <v>857.88831999999991</v>
+        <f>J21+h*K21</f>
+        <v>945.28875928867615</v>
       </c>
       <c r="O21" s="20" cm="1">
         <f t="array" ref="O21:P21">R20:S20</f>
         <v>0.4</v>
       </c>
       <c r="P21" s="20">
-        <v>632.71479999999997</v>
+        <v>673.96927181613194</v>
       </c>
       <c r="Q21" s="20">
-        <f t="shared" si="10"/>
-        <v>-700.71479999999997</v>
+        <f t="shared" si="7"/>
+        <v>-522.23457935236706</v>
       </c>
       <c r="R21" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="S21" s="20">
-        <f t="shared" si="12"/>
-        <v>562.64332000000002</v>
+        <f>P21+h*Q21</f>
+        <v>621.74581388089518</v>
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
@@ -9492,57 +9494,57 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="20">
-        <v>1153.1333199999999</v>
+        <v>1268.8174408639823</v>
       </c>
       <c r="E22" s="20">
-        <f t="shared" si="6"/>
-        <v>-1221.1333199999999</v>
+        <f t="shared" si="3"/>
+        <v>-872.94884912031262</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="3"/>
-        <v>1031.019988</v>
+        <f>D22+h*E22</f>
+        <v>1181.5225559519511</v>
       </c>
       <c r="I22" s="20" cm="1">
         <f t="array" ref="I22:J22">L21:M21</f>
         <v>0.5</v>
       </c>
       <c r="J22" s="20">
-        <v>857.88831999999991</v>
+        <v>945.28875928867615</v>
       </c>
       <c r="K22" s="20">
-        <f t="shared" si="7"/>
-        <v>-925.88831999999991</v>
+        <f t="shared" si="5"/>
+        <v>-663.71389229168312</v>
       </c>
       <c r="L22" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="M22" s="20">
-        <f t="shared" si="9"/>
-        <v>765.29948799999988</v>
+        <f>J22+h*K22</f>
+        <v>878.91737005950779</v>
       </c>
       <c r="O22" s="20" cm="1">
         <f t="array" ref="O22:P22">R21:S21</f>
         <v>0.5</v>
       </c>
       <c r="P22" s="20">
-        <v>562.64332000000002</v>
+        <v>621.74581388089518</v>
       </c>
       <c r="Q22" s="20">
-        <f t="shared" si="10"/>
-        <v>-630.64332000000002</v>
+        <f t="shared" si="7"/>
+        <v>-454.56785707841675</v>
       </c>
       <c r="R22" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="S22" s="20">
-        <f t="shared" si="12"/>
-        <v>499.57898799999998</v>
+        <f>P22+h*Q22</f>
+        <v>576.28902817305357</v>
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
@@ -9551,57 +9553,57 @@
         <v>0.6</v>
       </c>
       <c r="D23" s="20">
-        <v>1031.019988</v>
+        <v>1181.5225559519511</v>
       </c>
       <c r="E23" s="20">
-        <f t="shared" si="6"/>
-        <v>-1099.019988</v>
+        <f t="shared" si="3"/>
+        <v>-765.99777511161562</v>
       </c>
       <c r="F23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" si="3"/>
-        <v>921.11798920000001</v>
+        <f>D23+h*E23</f>
+        <v>1104.9227784407894</v>
       </c>
       <c r="I23" s="20" cm="1">
         <f t="array" ref="I23:J23">L22:M22</f>
         <v>0.6</v>
       </c>
       <c r="J23" s="20">
-        <v>765.29948799999988</v>
+        <v>878.91737005950779</v>
       </c>
       <c r="K23" s="20">
-        <f t="shared" si="7"/>
-        <v>-833.29948799999988</v>
+        <f t="shared" si="5"/>
+        <v>-582.99716226154783</v>
       </c>
       <c r="L23" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="20">
-        <f t="shared" si="9"/>
-        <v>681.96953919999987</v>
+        <f>J23+h*K23</f>
+        <v>820.61765383335296</v>
       </c>
       <c r="O23" s="20" cm="1">
         <f t="array" ref="O23:P23">R22:S22</f>
         <v>0.6</v>
       </c>
       <c r="P23" s="20">
-        <v>499.57898799999998</v>
+        <v>576.28902817305357</v>
       </c>
       <c r="Q23" s="20">
-        <f t="shared" si="10"/>
-        <v>-567.57898799999998</v>
+        <f t="shared" si="7"/>
+        <v>-400.10904399264257</v>
       </c>
       <c r="R23" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="S23" s="20">
-        <f t="shared" si="12"/>
-        <v>442.82108919999996</v>
+        <f>P23+h*Q23</f>
+        <v>536.27812377378928</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
@@ -9610,57 +9612,57 @@
         <v>0.7</v>
       </c>
       <c r="D24" s="20">
-        <v>921.11798920000001</v>
+        <v>1104.9227784407894</v>
       </c>
       <c r="E24" s="20">
-        <f t="shared" ref="E24:E33" si="13">-68-(D24^2/G23)</f>
-        <v>-989.11798920000001</v>
+        <f t="shared" si="3"/>
+        <v>-678.42717315865696</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="3"/>
-        <v>822.20619027999999</v>
+        <f>D24+h*E24</f>
+        <v>1037.0800611249238</v>
       </c>
       <c r="I24" s="20" cm="1">
         <f t="array" ref="I24:J24">L23:M23</f>
         <v>0.7</v>
       </c>
       <c r="J24" s="20">
-        <v>681.96953919999987</v>
+        <v>820.61765383335296</v>
       </c>
       <c r="K24" s="20">
-        <f t="shared" si="7"/>
-        <v>-749.96953919999987</v>
+        <f t="shared" si="5"/>
+        <v>-516.94222252197119</v>
       </c>
       <c r="L24" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="9"/>
-        <v>606.97258527999986</v>
+        <f>J24+h*K24</f>
+        <v>768.9234315811558</v>
       </c>
       <c r="O24" s="20" cm="1">
         <f t="array" ref="O24:P24">R23:S23</f>
         <v>0.7</v>
       </c>
       <c r="P24" s="20">
-        <v>442.82108919999996</v>
+        <v>536.27812377378928</v>
       </c>
       <c r="Q24" s="20">
-        <f t="shared" si="10"/>
-        <v>-510.82108919999996</v>
+        <f t="shared" si="7"/>
+        <v>-355.59422603833565</v>
       </c>
       <c r="R24" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="S24" s="20">
-        <f t="shared" si="12"/>
-        <v>391.73898027999996</v>
+        <f>P24+h*Q24</f>
+        <v>500.71870116995569</v>
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
@@ -9669,57 +9671,57 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="D25" s="20">
-        <v>822.20619027999999</v>
+        <v>1037.0800611249238</v>
       </c>
       <c r="E25" s="20">
-        <f t="shared" si="13"/>
-        <v>-890.20619027999999</v>
+        <f t="shared" si="3"/>
+        <v>-605.76752659143779</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" si="3"/>
-        <v>733.18557125200005</v>
+        <f>D25+h*E25</f>
+        <v>976.50330846578004</v>
       </c>
       <c r="I25" s="20" cm="1">
         <f t="array" ref="I25:J25">L24:M24</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="J25" s="20">
-        <v>606.97258527999986</v>
+        <v>768.9234315811558</v>
       </c>
       <c r="K25" s="20">
-        <f t="shared" si="7"/>
-        <v>-674.97258527999986</v>
+        <f t="shared" si="5"/>
+        <v>-462.16216242302693</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="9"/>
-        <v>539.47532675199989</v>
+        <f>J25+h*K25</f>
+        <v>722.70721533885308</v>
       </c>
       <c r="O25" s="20" cm="1">
         <f t="array" ref="O25:P25">R24:S24</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="P25" s="20">
-        <v>391.73898027999996</v>
+        <v>500.71870116995569</v>
       </c>
       <c r="Q25" s="20">
-        <f t="shared" si="10"/>
-        <v>-459.73898027999996</v>
+        <f t="shared" si="7"/>
+        <v>-318.71921770132735</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="S25" s="20">
-        <f t="shared" si="12"/>
-        <v>345.76508225199996</v>
+        <f>P25+h*Q25</f>
+        <v>468.84677939982294</v>
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
@@ -9728,57 +9730,57 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="D26" s="20">
-        <v>733.18557125200005</v>
+        <v>976.50330846578004</v>
       </c>
       <c r="E26" s="20">
-        <f t="shared" si="13"/>
-        <v>-801.18557125199993</v>
+        <f t="shared" si="3"/>
+        <v>-544.77935572230717</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="3"/>
-        <v>653.06701412680002</v>
+        <f>D26+h*E26</f>
+        <v>922.02537289354927</v>
       </c>
       <c r="I26" s="20" cm="1">
         <f t="array" ref="I26:J26">L25:M25</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="J26" s="20">
-        <v>539.47532675199989</v>
+        <v>722.70721533885308</v>
       </c>
       <c r="K26" s="20">
-        <f t="shared" si="7"/>
-        <v>-607.47532675199989</v>
+        <f t="shared" si="5"/>
+        <v>-416.20381273522622</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" si="9"/>
-        <v>478.72779407679991</v>
+        <f>J26+h*K26</f>
+        <v>681.08683406533044</v>
       </c>
       <c r="O26" s="20" cm="1">
         <f t="array" ref="O26:P26">R25:S25</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="P26" s="20">
-        <v>345.76508225199996</v>
+        <v>468.84677939982294</v>
       </c>
       <c r="Q26" s="20">
-        <f>-68-(P26^2/S25)</f>
-        <v>-413.76508225199996</v>
+        <f t="shared" si="7"/>
+        <v>-287.81730255358622</v>
       </c>
       <c r="R26" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="S26" s="20">
-        <f t="shared" si="12"/>
-        <v>304.38857402679997</v>
+        <f>P26+h*Q26</f>
+        <v>440.0650491444643</v>
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.2">
@@ -9787,57 +9789,57 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="D27" s="20">
-        <v>653.06701412680002</v>
+        <v>922.02537289354927</v>
       </c>
       <c r="E27" s="20">
-        <f t="shared" si="13"/>
-        <v>-721.06701412680002</v>
+        <f t="shared" si="3"/>
+        <v>-493.06539412974433</v>
       </c>
       <c r="F27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="3"/>
-        <v>580.96031271412005</v>
+        <f>D27+h*E27</f>
+        <v>872.71883348057486</v>
       </c>
       <c r="I27" s="20" cm="1">
         <f t="array" ref="I27:J27">L26:M26</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="J27" s="20">
-        <v>478.72779407679991</v>
+        <v>681.08683406533044</v>
       </c>
       <c r="K27" s="20">
-        <f t="shared" si="7"/>
-        <v>-546.72779407679991</v>
+        <f t="shared" si="5"/>
+        <v>-377.25285035808997</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="9"/>
-        <v>424.05501466911994</v>
+        <f>J27+h*K27</f>
+        <v>643.36154902952148</v>
       </c>
       <c r="O27" s="20" cm="1">
         <f t="array" ref="O27:P27">R26:S26</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="P27" s="20">
-        <v>304.38857402679997</v>
+        <v>440.0650491444643</v>
       </c>
       <c r="Q27" s="20">
-        <f t="shared" ref="Q27:Q30" si="14">-68-(P27^2/S26)</f>
-        <v>-372.38857402679997</v>
+        <f t="shared" si="7"/>
+        <v>-261.65724747851976</v>
       </c>
       <c r="R27" s="20">
-        <f t="shared" ref="R27:R44" si="15">O27+h</f>
+        <f t="shared" si="8"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="S27" s="20">
-        <f t="shared" ref="S27:S44" si="16">P27+h*Q27</f>
-        <v>267.14971662411995</v>
+        <f>P27+h*Q27</f>
+        <v>413.89932439661231</v>
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
@@ -9846,57 +9848,57 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="D28" s="20">
-        <v>580.96031271412005</v>
+        <v>872.71883348057486</v>
       </c>
       <c r="E28" s="20">
-        <f t="shared" si="13"/>
-        <v>-648.96031271412005</v>
+        <f t="shared" si="3"/>
+        <v>-448.8190811558477</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="3"/>
-        <v>516.06428144270808</v>
+        <f>D28+h*E28</f>
+        <v>827.83692536499007</v>
       </c>
       <c r="I28" s="20" cm="1">
         <f t="array" ref="I28:J28">L27:M27</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="J28" s="20">
-        <v>424.05501466911994</v>
+        <v>643.36154902952148</v>
       </c>
       <c r="K28" s="20">
-        <f t="shared" si="7"/>
-        <v>-492.05501466911994</v>
+        <f t="shared" si="5"/>
+        <v>-343.94272184644359</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="9"/>
-        <v>374.84951320220796</v>
+        <f>J28+h*K28</f>
+        <v>608.96727684487712</v>
       </c>
       <c r="O28" s="20" cm="1">
         <f t="array" ref="O28:P28">R27:S27</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="P28" s="20">
-        <v>267.14971662411995</v>
+        <v>413.89932439661231</v>
       </c>
       <c r="Q28" s="20">
-        <f t="shared" si="14"/>
-        <v>-335.14971662411995</v>
+        <f t="shared" si="7"/>
+        <v>-239.31265073597211</v>
       </c>
       <c r="R28" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="S28" s="20">
-        <f t="shared" si="16"/>
-        <v>233.63474496170795</v>
+        <f>P28+h*Q28</f>
+        <v>389.9680593230151</v>
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.2">
@@ -9905,57 +9907,57 @@
         <v>1.2</v>
       </c>
       <c r="D29" s="20">
-        <v>516.06428144270808</v>
+        <v>827.83692536499007</v>
       </c>
       <c r="E29" s="20">
-        <f t="shared" si="13"/>
-        <v>-584.06428144270808</v>
+        <f t="shared" si="3"/>
+        <v>-410.65698749888008</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="3"/>
-        <v>457.65785329843726</v>
+        <f>D29+h*E29</f>
+        <v>786.77122661510202</v>
       </c>
       <c r="I29" s="20" cm="1">
         <f t="array" ref="I29:J29">L28:M28</f>
         <v>1.2</v>
       </c>
       <c r="J29" s="20">
-        <v>374.84951320220796</v>
+        <v>608.96727684487712</v>
       </c>
       <c r="K29" s="20">
-        <f t="shared" si="7"/>
-        <v>-442.84951320220802</v>
+        <f t="shared" si="5"/>
+        <v>-315.22742951191015</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="M29" s="20">
-        <f t="shared" si="9"/>
-        <v>330.56456188198717</v>
+        <f>J29+h*K29</f>
+        <v>577.44453389368607</v>
       </c>
       <c r="O29" s="20" cm="1">
         <f t="array" ref="O29:P29">R28:S28</f>
         <v>1.2</v>
       </c>
       <c r="P29" s="20">
-        <v>233.63474496170795</v>
+        <v>389.9680593230151</v>
       </c>
       <c r="Q29" s="20">
-        <f t="shared" si="14"/>
-        <v>-301.63474496170795</v>
+        <f t="shared" si="7"/>
+        <v>-220.07508729215863</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" si="16"/>
-        <v>203.47127046553715</v>
+        <f>P29+h*Q29</f>
+        <v>367.96055059379921</v>
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.2">
@@ -9964,57 +9966,57 @@
         <v>1.3</v>
       </c>
       <c r="D30" s="20">
-        <v>457.65785329843726</v>
+        <v>786.77122661510202</v>
       </c>
       <c r="E30" s="20">
-        <f t="shared" si="13"/>
-        <v>-525.6578532984372</v>
+        <f t="shared" si="3"/>
+        <v>-377.50448151471613</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" si="3"/>
-        <v>405.09206796859354</v>
+        <f>D30+h*E30</f>
+        <v>749.02077846363045</v>
       </c>
       <c r="I30" s="20" cm="1">
         <f t="array" ref="I30:J30">L29:M29</f>
         <v>1.3</v>
       </c>
       <c r="J30" s="20">
-        <v>330.56456188198717</v>
+        <v>577.44453389368607</v>
       </c>
       <c r="K30" s="20">
-        <f t="shared" si="7"/>
-        <v>-398.56456188198717</v>
+        <f t="shared" si="5"/>
+        <v>-290.2947931491309</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="9"/>
-        <v>290.70810569378847</v>
+        <f>J30+h*K30</f>
+        <v>548.41505457877292</v>
       </c>
       <c r="O30" s="20" cm="1">
         <f t="array" ref="O30:P30">R29:S29</f>
         <v>1.3</v>
       </c>
       <c r="P30" s="20">
-        <v>203.47127046553715</v>
+        <v>367.96055059379921</v>
       </c>
       <c r="Q30" s="20">
-        <f t="shared" si="14"/>
-        <v>-271.47127046553715</v>
+        <f t="shared" si="7"/>
+        <v>-203.39496679329187</v>
       </c>
       <c r="R30" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="S30" s="20">
-        <f t="shared" si="16"/>
-        <v>176.32414341898343</v>
+        <f>P30+h*Q30</f>
+        <v>347.62105391447005</v>
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.2">
@@ -10023,57 +10025,57 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="D31" s="20">
-        <v>405.09206796859354</v>
+        <v>749.02077846363045</v>
       </c>
       <c r="E31" s="20">
-        <f t="shared" si="13"/>
-        <v>-473.09206796859354</v>
+        <f t="shared" si="3"/>
+        <v>-348.51606328513145</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="G31" s="20">
-        <f t="shared" si="3"/>
-        <v>357.78286117173417</v>
+        <f>D31+h*E31</f>
+        <v>714.16917213511726</v>
       </c>
       <c r="I31" s="20" cm="1">
         <f t="array" ref="I31:J31">L30:M30</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="J31" s="20">
-        <v>290.70810569378847</v>
+        <v>548.41505457877292</v>
       </c>
       <c r="K31" s="20">
-        <f t="shared" si="7"/>
-        <v>-358.70810569378847</v>
+        <f t="shared" si="5"/>
+        <v>-268.50604805909234</v>
       </c>
       <c r="L31" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="M31" s="20">
-        <f t="shared" si="9"/>
-        <v>254.83729512440962</v>
+        <f>J31+h*K31</f>
+        <v>521.56444977286367</v>
       </c>
       <c r="O31" s="20" cm="1">
         <f t="array" ref="O31:P31">R30:S30</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="P31" s="20">
-        <v>176.32414341898343</v>
+        <v>347.62105391447005</v>
       </c>
       <c r="Q31" s="20">
-        <f>-68-(P31^2/S30)</f>
-        <v>-244.32414341898343</v>
+        <f t="shared" si="7"/>
+        <v>-188.84039712460691</v>
       </c>
       <c r="R31" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="S31" s="20">
-        <f t="shared" si="16"/>
-        <v>151.89172907708507</v>
+        <f>P31+h*Q31</f>
+        <v>328.73701420200939</v>
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.2">
@@ -10082,57 +10084,57 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="D32" s="20">
-        <v>357.78286117173417</v>
+        <v>714.16917213511726</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" si="13"/>
-        <v>-425.78286117173417</v>
+        <f t="shared" si="3"/>
+        <v>-323.01880321407941</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" si="3"/>
-        <v>315.20457505456073</v>
+        <f>D32+h*E32</f>
+        <v>681.86729181370936</v>
       </c>
       <c r="I32" s="20" cm="1">
         <f t="array" ref="I32:J32">L31:M31</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="J32" s="20">
-        <v>254.83729512440962</v>
+        <v>521.56444977286367</v>
       </c>
       <c r="K32" s="20">
-        <f>-68-(J32^2/M31)</f>
-        <v>-322.83729512440959</v>
+        <f t="shared" si="5"/>
+        <v>-249.35298351124669</v>
       </c>
       <c r="L32" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="9"/>
-        <v>222.55356561196865</v>
+        <f>J32+h*K32</f>
+        <v>496.62915142173898</v>
       </c>
       <c r="O32" s="20" cm="1">
         <f t="array" ref="O32:P32">R31:S31</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="P32" s="20">
-        <v>151.89172907708507</v>
+        <v>328.73701420200939</v>
       </c>
       <c r="Q32" s="20">
-        <f t="shared" ref="Q32:Q36" si="17">-68-(P32^2/S31)</f>
-        <v>-219.89172907708507</v>
+        <f t="shared" si="7"/>
+        <v>-176.06802450645213</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" si="16"/>
-        <v>129.90255616937657</v>
+        <f>P32+h*Q32</f>
+        <v>311.13021175136419</v>
       </c>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.2">
@@ -10141,57 +10143,57 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="D33" s="20">
-        <v>315.20457505456073</v>
+        <v>681.86729181370936</v>
       </c>
       <c r="E33" s="20">
-        <f t="shared" si="13"/>
-        <v>-383.20457505456073</v>
+        <f t="shared" si="3"/>
+        <v>-300.47150182268115</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="G33" s="20">
-        <f t="shared" si="3"/>
-        <v>276.88411754910464</v>
+        <f>D33+h*E33</f>
+        <v>651.82014163144129</v>
       </c>
       <c r="I33" s="20" cm="1">
         <f t="array" ref="I33:J33">L32:M32</f>
         <v>1.6000000000000003</v>
       </c>
       <c r="J33" s="20">
-        <v>222.55356561196865</v>
+        <v>496.62915142173898</v>
       </c>
       <c r="K33" s="20">
-        <f t="shared" ref="K33:K36" si="18">-68-(J33^2/M32)</f>
-        <v>-290.55356561196868</v>
+        <f t="shared" si="5"/>
+        <v>-232.42700936125104</v>
       </c>
       <c r="L33" s="20">
-        <f t="shared" ref="L33:L47" si="19">I33+h</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="M33" s="20">
-        <f t="shared" ref="M33:M47" si="20">J33+h*K33</f>
-        <v>193.49820905077178</v>
+        <f>J33+h*K33</f>
+        <v>473.38645048561386</v>
       </c>
       <c r="O33" s="20" cm="1">
         <f t="array" ref="O33:P33">R32:S32</f>
         <v>1.6000000000000003</v>
       </c>
       <c r="P33" s="20">
-        <v>129.90255616937657</v>
+        <v>311.13021175136419</v>
       </c>
       <c r="Q33" s="20">
-        <f t="shared" si="17"/>
-        <v>-197.90255616937657</v>
+        <f t="shared" si="7"/>
+        <v>-164.80200866444872</v>
       </c>
       <c r="R33" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="S33" s="20">
-        <f t="shared" si="16"/>
-        <v>110.11230055243891</v>
+        <f>P33+h*Q33</f>
+        <v>294.65001088491931</v>
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.2">
@@ -10200,57 +10202,57 @@
         <v>1.7000000000000004</v>
       </c>
       <c r="D34" s="20">
-        <v>276.88411754910464</v>
+        <v>651.82014163144129</v>
       </c>
       <c r="E34" s="20">
-        <f>-68-(D34^2/G33)</f>
-        <v>-344.88411754910464</v>
+        <f t="shared" si="3"/>
+        <v>-280.43474851821611</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.8000000000000005</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" si="3"/>
-        <v>242.39570579419419</v>
+        <f>D34+h*E34</f>
+        <v>623.77666677961963</v>
       </c>
       <c r="I34" s="20" cm="1">
         <f t="array" ref="I34:J34">L33:M33</f>
         <v>1.7000000000000004</v>
       </c>
       <c r="J34" s="20">
-        <v>193.49820905077178</v>
+        <v>473.38645048561386</v>
       </c>
       <c r="K34" s="20">
-        <f t="shared" si="18"/>
-        <v>-261.49820905077172</v>
+        <f t="shared" si="5"/>
+        <v>-217.39648766891239</v>
       </c>
       <c r="L34" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>1.8000000000000005</v>
       </c>
       <c r="M34" s="20">
-        <f t="shared" si="20"/>
-        <v>167.3483881456946</v>
+        <f>J34+h*K34</f>
+        <v>451.6468017187226</v>
       </c>
       <c r="O34" s="20" cm="1">
         <f t="array" ref="O34:P34">R33:S33</f>
         <v>1.7000000000000004</v>
       </c>
       <c r="P34" s="20">
-        <v>110.11230055243891</v>
+        <v>294.65001088491931</v>
       </c>
       <c r="Q34" s="20">
-        <f t="shared" si="17"/>
-        <v>-178.11230055243891</v>
+        <f t="shared" si="7"/>
+        <v>-154.81862891448307</v>
       </c>
       <c r="R34" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.8000000000000005</v>
       </c>
       <c r="S34" s="20">
-        <f t="shared" si="16"/>
-        <v>92.301070497195013</v>
+        <f>P34+h*Q34</f>
+        <v>279.168147993471</v>
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.2">
@@ -10259,57 +10261,57 @@
         <v>1.8000000000000005</v>
       </c>
       <c r="D35" s="20">
-        <v>242.39570579419419</v>
+        <v>623.77666677961963</v>
       </c>
       <c r="E35" s="20">
-        <f>-68-(D35^2/G34)</f>
-        <v>-310.39570579419421</v>
+        <f t="shared" si="3"/>
+        <v>-262.54866500934634</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9000000000000006</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="3"/>
-        <v>211.35613521477475</v>
+        <f>D35+h*E35</f>
+        <v>597.52180027868496</v>
       </c>
       <c r="I35" s="20" cm="1">
         <f t="array" ref="I35:J35">L34:M34</f>
         <v>1.8000000000000005</v>
       </c>
       <c r="J35" s="20">
-        <v>167.3483881456946</v>
+        <v>451.6468017187226</v>
       </c>
       <c r="K35" s="20">
-        <f t="shared" si="18"/>
-        <v>-235.3483881456946</v>
+        <f t="shared" si="5"/>
+        <v>-203.98988900183409</v>
       </c>
       <c r="L35" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>1.9000000000000006</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" si="20"/>
-        <v>143.81354933112513</v>
+        <f>J35+h*K35</f>
+        <v>431.24781281853916</v>
       </c>
       <c r="O35" s="20" cm="1">
         <f t="array" ref="O35:P35">R34:S34</f>
         <v>1.8000000000000005</v>
       </c>
       <c r="P35" s="20">
-        <v>92.301070497195013</v>
+        <v>279.168147993471</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" si="17"/>
-        <v>-160.30107049719504</v>
+        <f t="shared" si="7"/>
+        <v>-145.93485485410451</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.9000000000000006</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" si="16"/>
-        <v>76.270963447475509</v>
+        <f>P35+h*Q35</f>
+        <v>264.57466250806056</v>
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.2">
@@ -10318,57 +10320,57 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="D36" s="20">
-        <v>211.35613521477475</v>
+        <v>597.52180027868496</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" ref="E36:E38" si="21">-68-(D36^2/G35)</f>
-        <v>-279.35613521477478</v>
+        <f t="shared" si="3"/>
+        <v>-246.51615090414035</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="3"/>
-        <v>183.42052169329727</v>
+        <f>D36+h*E36</f>
+        <v>572.87018518827097</v>
       </c>
       <c r="I36" s="20" cm="1">
         <f t="array" ref="I36:J36">L35:M35</f>
         <v>1.9000000000000006</v>
       </c>
       <c r="J36" s="20">
-        <v>143.81354933112513</v>
+        <v>431.24781281853916</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" si="18"/>
-        <v>-211.81354933112513</v>
+        <f t="shared" si="5"/>
+        <v>-191.98311737384918</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" si="20"/>
-        <v>122.63219439801262</v>
+        <f>J36+h*K36</f>
+        <v>412.04950108115423</v>
       </c>
       <c r="O36" s="20" cm="1">
         <f t="array" ref="O36:P36">R35:S35</f>
         <v>1.9000000000000006</v>
       </c>
       <c r="P36" s="20">
-        <v>76.270963447475509</v>
+        <v>264.57466250806056</v>
       </c>
       <c r="Q36" s="20">
-        <f t="shared" si="17"/>
-        <v>-144.27096344747551</v>
+        <f t="shared" si="7"/>
+        <v>-137.99975204125417</v>
       </c>
       <c r="R36" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="S36" s="20">
-        <f t="shared" si="16"/>
-        <v>61.843867102727955</v>
+        <f>P36+h*Q36</f>
+        <v>250.77468730393514</v>
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.2">
@@ -10377,57 +10379,57 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="D37" s="20">
-        <v>183.42052169329727</v>
+        <v>572.87018518827097</v>
       </c>
       <c r="E37" s="20">
-        <f t="shared" si="21"/>
-        <v>-251.42052169329727</v>
+        <f t="shared" si="3"/>
+        <v>-232.09012453882193</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" si="3"/>
-        <v>158.27846952396754</v>
+        <f>D37+h*E37</f>
+        <v>549.66117273438874</v>
       </c>
       <c r="I37" s="20" cm="1">
         <f t="array" ref="I37:J37">L36:M36</f>
         <v>2.0000000000000004</v>
       </c>
       <c r="J37" s="20">
-        <v>122.63219439801262</v>
+        <v>412.04950108115423</v>
       </c>
       <c r="K37" s="20">
-        <f>-68-(J37^2/M36)</f>
-        <v>-190.63219439801262</v>
+        <f t="shared" si="5"/>
+        <v>-181.18986089415208</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" si="20"/>
-        <v>103.56897495821136</v>
+        <f>J37+h*K37</f>
+        <v>393.93051499173902</v>
       </c>
       <c r="O37" s="20" cm="1">
         <f t="array" ref="O37:P37">R36:S36</f>
         <v>2.0000000000000004</v>
       </c>
       <c r="P37" s="20">
-        <v>61.843867102727955</v>
+        <v>250.77468730393514</v>
       </c>
       <c r="Q37" s="20">
-        <f>-68-(P37^2/S36)</f>
-        <v>-129.84386710272796</v>
+        <f t="shared" si="7"/>
+        <v>-130.88794379238644</v>
       </c>
       <c r="R37" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="S37" s="20">
-        <f t="shared" si="16"/>
-        <v>48.859480392455161</v>
+        <f>P37+h*Q37</f>
+        <v>237.6858929246965</v>
       </c>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.2">
@@ -10436,57 +10438,57 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="D38" s="20">
-        <v>158.27846952396754</v>
+        <v>549.66117273438874</v>
       </c>
       <c r="E38" s="20">
-        <f t="shared" si="21"/>
-        <v>-226.27846952396754</v>
+        <f t="shared" si="3"/>
+        <v>-219.06370240587177</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" si="3"/>
-        <v>135.65062257157078</v>
+        <f>D38+h*E38</f>
+        <v>527.75480249380155</v>
       </c>
       <c r="I38" s="20" cm="1">
         <f t="array" ref="I38:J38">L37:M37</f>
         <v>2.1000000000000005</v>
       </c>
       <c r="J38" s="20">
-        <v>103.56897495821136</v>
+        <v>393.93051499173902</v>
       </c>
       <c r="K38" s="20">
-        <f t="shared" ref="K38:K39" si="22">-68-(J38^2/M37)</f>
-        <v>-171.56897495821136</v>
+        <f t="shared" si="5"/>
+        <v>-171.45416709443782</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" si="20"/>
-        <v>86.412077462390215</v>
+        <f>J38+h*K38</f>
+        <v>376.78509828229522</v>
       </c>
       <c r="O38" s="20" cm="1">
         <f t="array" ref="O38:P38">R37:S37</f>
         <v>2.1000000000000005</v>
       </c>
       <c r="P38" s="20">
-        <v>48.859480392455161</v>
+        <v>237.6858929246965</v>
       </c>
       <c r="Q38" s="20">
-        <f t="shared" ref="Q38:Q40" si="23">-68-(P38^2/S37)</f>
-        <v>-116.85948039245517</v>
+        <f t="shared" si="7"/>
+        <v>-124.49458369541028</v>
       </c>
       <c r="R38" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="S38" s="20">
-        <f t="shared" si="16"/>
-        <v>37.173532353209644</v>
+        <f>P38+h*Q38</f>
+        <v>225.23643455515548</v>
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.2">
@@ -10495,57 +10497,57 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="D39" s="20">
-        <v>135.65062257157078</v>
+        <v>527.75480249380155</v>
       </c>
       <c r="E39" s="20">
-        <f>-68-(D39^2/G38)</f>
-        <v>-203.65062257157078</v>
+        <f t="shared" si="3"/>
+        <v>-207.26256577763576</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="3"/>
-        <v>115.2855603144137</v>
+        <f>D39+h*E39</f>
+        <v>507.02854591603796</v>
       </c>
       <c r="I39" s="20" cm="1">
         <f t="array" ref="I39:J39">L38:M38</f>
         <v>2.2000000000000006</v>
       </c>
       <c r="J39" s="20">
-        <v>86.412077462390215</v>
+        <v>376.78509828229522</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" si="22"/>
-        <v>-154.41207746239022</v>
+        <f t="shared" si="5"/>
+        <v>-162.64467352506591</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="20"/>
-        <v>70.970869716151185</v>
+        <f>J39+h*K39</f>
+        <v>360.52063092978864</v>
       </c>
       <c r="O39" s="20" cm="1">
         <f t="array" ref="O39:P39">R38:S38</f>
         <v>2.2000000000000006</v>
       </c>
       <c r="P39" s="20">
-        <v>37.173532353209644</v>
+        <v>225.23643455515548</v>
       </c>
       <c r="Q39" s="20">
-        <f t="shared" si="23"/>
-        <v>-105.17353235320965</v>
+        <f t="shared" si="7"/>
+        <v>-118.73145145111883</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" si="16"/>
-        <v>26.656179117888676</v>
+        <f>P39+h*Q39</f>
+        <v>213.36328941004359</v>
       </c>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.2">
@@ -10554,57 +10556,57 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="D40" s="20">
-        <v>115.2855603144137</v>
+        <v>507.02854591603796</v>
       </c>
       <c r="E40" s="20">
-        <f>-68-(D40^2/G39)</f>
-        <v>-183.28556031441371</v>
+        <f t="shared" si="3"/>
+        <v>-196.53897318686589</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="3"/>
-        <v>96.957004282972321</v>
+        <f>D40+h*E40</f>
+        <v>487.37464859735138</v>
       </c>
       <c r="I40" s="20" cm="1">
         <f t="array" ref="I40:J40">L39:M39</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="J40" s="20">
-        <v>70.970869716151185</v>
+        <v>360.52063092978864</v>
       </c>
       <c r="K40" s="20">
-        <f>-68-(J40^2/M39)</f>
-        <v>-138.97086971615119</v>
+        <f t="shared" si="5"/>
+        <v>-154.65008355067525</v>
       </c>
       <c r="L40" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="M40" s="20">
-        <f t="shared" si="20"/>
-        <v>57.073782744536068</v>
+        <f>J40+h*K40</f>
+        <v>345.0556225747211</v>
       </c>
       <c r="O40" s="20" cm="1">
         <f t="array" ref="O40:P40">R39:S39</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="P40" s="20">
-        <v>26.656179117888676</v>
+        <v>213.36328941004359</v>
       </c>
       <c r="Q40" s="20">
-        <f t="shared" si="23"/>
-        <v>-94.656179117888684</v>
+        <f t="shared" si="7"/>
+        <v>-113.52389326787402</v>
       </c>
       <c r="R40" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="S40" s="20">
-        <f t="shared" si="16"/>
-        <v>17.190561206099808</v>
+        <f>P40+h*Q40</f>
+        <v>202.01090008325619</v>
       </c>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.2">
@@ -10613,57 +10615,57 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="D41" s="20">
-        <v>96.957004282972321</v>
+        <v>487.37464859735138</v>
       </c>
       <c r="E41" s="20">
-        <f>-68-(D41^2/G40)</f>
-        <v>-164.95700428297232</v>
+        <f t="shared" si="3"/>
+        <v>-186.76702404769588</v>
       </c>
       <c r="F41" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" si="3"/>
-        <v>80.461303854675094</v>
+        <f>D41+h*E41</f>
+        <v>468.69794619258181</v>
       </c>
       <c r="I41" s="20" cm="1">
         <f t="array" ref="I41:J41">L40:M40</f>
         <v>2.4000000000000008</v>
       </c>
       <c r="J41" s="20">
-        <v>57.073782744536068</v>
+        <v>345.0556225747211</v>
       </c>
       <c r="K41" s="20">
-        <f t="shared" ref="K41:K44" si="24">-68-(J41^2/M40)</f>
-        <v>-125.07378274453606</v>
+        <f t="shared" si="5"/>
+        <v>-147.37558844695224</v>
       </c>
       <c r="L41" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="M41" s="20">
-        <f t="shared" si="20"/>
-        <v>44.56640447008246</v>
+        <f>J41+h*K41</f>
+        <v>330.31806373002587</v>
       </c>
       <c r="O41" s="20" cm="1">
         <f t="array" ref="O41:P41">R40:S40</f>
         <v>2.4000000000000008</v>
       </c>
       <c r="P41" s="20">
-        <v>17.190561206099808</v>
+        <v>202.01090008325619</v>
       </c>
       <c r="Q41" s="20">
-        <f>-68-(P41^2/S40)</f>
-        <v>-85.190561206099801</v>
+        <f t="shared" si="7"/>
+        <v>-108.80840375244732</v>
       </c>
       <c r="R41" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="S41" s="20">
-        <f t="shared" si="16"/>
-        <v>8.6715050854898283</v>
+        <f>P41+h*Q41</f>
+        <v>191.13005970801146</v>
       </c>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.2">
@@ -10672,57 +10674,57 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="D42" s="20">
-        <v>80.461303854675094</v>
+        <v>468.69794619258181</v>
       </c>
       <c r="E42" s="20">
-        <f>-68-(D42^2/G41)</f>
-        <v>-148.46130385467509</v>
+        <f t="shared" si="3"/>
+        <v>-177.83888238257217</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.600000000000001</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="3"/>
-        <v>65.615173469207576</v>
+        <f>D42+h*E42</f>
+        <v>450.91405795432462</v>
       </c>
       <c r="I42" s="20" cm="1">
         <f t="array" ref="I42:J42">L41:M41</f>
         <v>2.5000000000000009</v>
       </c>
       <c r="J42" s="20">
-        <v>44.56640447008246</v>
+        <v>330.31806373002587</v>
       </c>
       <c r="K42" s="20">
-        <f t="shared" si="24"/>
-        <v>-112.56640447008246</v>
+        <f t="shared" si="5"/>
+        <v>-140.74001548423561</v>
       </c>
       <c r="L42" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.600000000000001</v>
       </c>
       <c r="M42" s="20">
-        <f t="shared" si="20"/>
-        <v>33.309764023074216</v>
+        <f>J42+h*K42</f>
+        <v>316.24406218160232</v>
       </c>
       <c r="O42" s="20" cm="1">
         <f t="array" ref="O42:P42">R41:S41</f>
         <v>2.5000000000000009</v>
       </c>
       <c r="P42" s="20">
-        <v>8.6715050854898283</v>
+        <v>191.13005970801146</v>
       </c>
       <c r="Q42" s="20">
-        <f t="shared" ref="Q42:Q44" si="25">-68-(P42^2/S41)</f>
-        <v>-76.671505085489827</v>
+        <f t="shared" si="7"/>
+        <v>-104.53069972398802</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.600000000000001</v>
       </c>
       <c r="S42" s="20">
-        <f t="shared" si="16"/>
-        <v>1.0043545769408455</v>
+        <f>P42+h*Q42</f>
+        <v>180.67698973561266</v>
       </c>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.2">
@@ -10731,57 +10733,57 @@
         <v>2.600000000000001</v>
       </c>
       <c r="D43" s="20">
-        <v>65.615173469207576</v>
+        <v>450.91405795432462</v>
       </c>
       <c r="E43" s="20">
-        <f t="shared" ref="E43:E44" si="26">-68-(D43^2/G42)</f>
-        <v>-133.61517346920758</v>
+        <f t="shared" si="3"/>
+        <v>-169.661743830418</v>
       </c>
       <c r="F43" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" si="3"/>
-        <v>52.25365612228682</v>
+        <f>D43+h*E43</f>
+        <v>433.94788357128283</v>
       </c>
       <c r="I43" s="20" cm="1">
         <f t="array" ref="I43:J43">L42:M42</f>
         <v>2.600000000000001</v>
       </c>
       <c r="J43" s="20">
-        <v>33.309764023074216</v>
+        <v>316.24406218160232</v>
       </c>
       <c r="K43" s="20">
-        <f t="shared" si="24"/>
-        <v>-101.30976402307422</v>
+        <f t="shared" si="5"/>
+        <v>-134.67353791008077</v>
       </c>
       <c r="L43" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="M43" s="20">
-        <f t="shared" si="20"/>
-        <v>23.178787620766791</v>
+        <f>J43+h*K43</f>
+        <v>302.77670839059425</v>
       </c>
       <c r="O43" s="20" cm="1">
         <f t="array" ref="O43:P43">R42:S42</f>
         <v>2.600000000000001</v>
       </c>
       <c r="P43" s="20">
-        <v>1.0043545769408455</v>
+        <v>180.67698973561266</v>
       </c>
       <c r="Q43" s="20">
-        <f t="shared" si="25"/>
-        <v>-69.004354576940841</v>
+        <f t="shared" si="7"/>
+        <v>-100.64417461992269</v>
       </c>
       <c r="R43" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="S43" s="20">
-        <f t="shared" si="16"/>
-        <v>-5.8960808807532388</v>
+        <f>P43+h*Q43</f>
+        <v>170.6125722736204</v>
       </c>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.2">
@@ -10790,57 +10792,57 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="D44" s="20">
-        <v>52.25365612228682</v>
+        <v>433.94788357128283</v>
       </c>
       <c r="E44" s="20">
-        <f t="shared" si="26"/>
-        <v>-120.25365612228683</v>
+        <f t="shared" si="3"/>
+        <v>-162.15538282799781</v>
       </c>
       <c r="F44" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" si="3"/>
-        <v>40.228290510058137</v>
+        <f>D44+h*E44</f>
+        <v>417.73234528848303</v>
       </c>
       <c r="I44" s="20" cm="1">
         <f t="array" ref="I44:J44">L43:M43</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="J44" s="20">
-        <v>23.178787620766791</v>
+        <v>302.77670839059425</v>
       </c>
       <c r="K44" s="20">
-        <f t="shared" si="24"/>
-        <v>-91.178787620766798</v>
+        <f t="shared" si="5"/>
+        <v>-129.11582342922864</v>
       </c>
       <c r="L44" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="M44" s="20">
-        <f t="shared" si="20"/>
-        <v>14.060908858690111</v>
+        <f>J44+h*K44</f>
+        <v>289.86512604767137</v>
       </c>
       <c r="O44" s="20" cm="1">
         <f t="array" ref="O44:P44">R43:S43</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="P44" s="20">
-        <v>-5.8960808807532388</v>
+        <v>170.6125722736204</v>
       </c>
       <c r="Q44" s="20">
-        <f t="shared" si="25"/>
-        <v>-62.103919119246761</v>
+        <f t="shared" si="7"/>
+        <v>-97.108649817821345</v>
       </c>
       <c r="R44" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="S44" s="20">
-        <f t="shared" si="16"/>
-        <v>-12.106472792677916</v>
+        <f>P44+h*Q44</f>
+        <v>160.90170729183828</v>
       </c>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.2">
@@ -10849,38 +10851,57 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="D45" s="20">
-        <v>40.228290510058137</v>
+        <v>417.73234528848303</v>
       </c>
       <c r="E45" s="20">
-        <f t="shared" ref="E45:E48" si="27">-68-(D45^2/G44)</f>
-        <v>-108.22829051005814</v>
+        <f t="shared" si="3"/>
+        <v>-155.25015615010818</v>
       </c>
       <c r="F45" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" si="3"/>
-        <v>29.405461459052322</v>
+        <f>D45+h*E45</f>
+        <v>402.2073296734722</v>
       </c>
       <c r="I45" s="20" cm="1">
         <f t="array" ref="I45:J45">L44:M44</f>
         <v>2.8000000000000012</v>
       </c>
       <c r="J45" s="20">
-        <v>14.060908858690111</v>
+        <v>289.86512604767137</v>
       </c>
       <c r="K45" s="20">
-        <f>-68-(J45^2/M44)</f>
-        <v>-82.060908858690112</v>
+        <f t="shared" si="5"/>
+        <v>-124.0145275324216</v>
       </c>
       <c r="L45" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="M45" s="20">
-        <f t="shared" si="20"/>
-        <v>5.8548179728210989</v>
+        <f>J45+h*K45</f>
+        <v>277.46367329442921</v>
+      </c>
+      <c r="O45" s="20" cm="1">
+        <f t="array" ref="O45:P45">R44:S44</f>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="P45" s="20">
+        <v>160.90170729183828</v>
+      </c>
+      <c r="Q45" s="20">
+        <f t="shared" si="7"/>
+        <v>-93.889359409428408</v>
+      </c>
+      <c r="R45" s="20">
+        <f t="shared" si="8"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="S45" s="20">
+        <f>P45+h*Q45</f>
+        <v>151.51277135089543</v>
       </c>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.2">
@@ -10889,38 +10910,57 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="D46" s="20">
-        <v>29.405461459052322</v>
+        <v>402.2073296734722</v>
       </c>
       <c r="E46" s="20">
-        <f t="shared" si="27"/>
-        <v>-97.405461459052319</v>
+        <f t="shared" si="3"/>
+        <v>-148.88536802153257</v>
       </c>
       <c r="F46" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" si="3"/>
-        <v>19.664915313147091</v>
+        <f>D46+h*E46</f>
+        <v>387.31879287131892</v>
       </c>
       <c r="I46" s="20" cm="1">
         <f t="array" ref="I46:J46">L45:M45</f>
         <v>2.9000000000000012</v>
       </c>
       <c r="J46" s="20">
-        <v>5.8548179728210989</v>
+        <v>277.46367329442921</v>
       </c>
       <c r="K46" s="20">
-        <f t="shared" ref="K46:K47" si="28">-68-(J46^2/M45)</f>
-        <v>-73.854817972821095</v>
+        <f t="shared" si="5"/>
+        <v>-119.32405999869184</v>
       </c>
       <c r="L46" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="M46" s="20">
-        <f t="shared" si="20"/>
-        <v>-1.5306638244610111</v>
+        <f>J46+h*K46</f>
+        <v>265.53126729456005</v>
+      </c>
+      <c r="O46" s="20" cm="1">
+        <f t="array" ref="O46:P46">R45:S45</f>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="P46" s="20">
+        <v>151.51277135089543</v>
+      </c>
+      <c r="Q46" s="20">
+        <f>-68-(P46^2/1000)</f>
+        <v>-90.956119882428723</v>
+      </c>
+      <c r="R46" s="20">
+        <f t="shared" si="8"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="S46" s="20">
+        <f>P46+h*Q46</f>
+        <v>142.41715936265257</v>
       </c>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.2">
@@ -10929,38 +10969,57 @@
         <v>3.0000000000000013</v>
       </c>
       <c r="D47" s="20">
-        <v>19.664915313147091</v>
+        <v>387.31879287131892</v>
       </c>
       <c r="E47" s="20">
-        <f t="shared" si="27"/>
-        <v>-87.664915313147091</v>
+        <f t="shared" si="3"/>
+        <v>-143.00792365564783</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="3"/>
-        <v>10.898423781832381</v>
+        <f>D47+h*E47</f>
+        <v>373.01800050575412</v>
       </c>
       <c r="I47" s="20" cm="1">
         <f t="array" ref="I47:J47">L46:M46</f>
         <v>3.0000000000000013</v>
       </c>
       <c r="J47" s="20">
-        <v>-1.5306638244610111</v>
+        <v>265.53126729456005</v>
       </c>
       <c r="K47" s="20">
-        <f t="shared" si="28"/>
-        <v>-66.469336175538984</v>
+        <f t="shared" si="5"/>
+        <v>-115.00456927403673</v>
       </c>
       <c r="L47" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="6"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="M47" s="20">
-        <f t="shared" si="20"/>
-        <v>-8.1775974420149105</v>
+        <f>J47+h*K47</f>
+        <v>254.03081036715639</v>
+      </c>
+      <c r="O47" s="20" cm="1">
+        <f t="array" ref="O47:P47">R46:S46</f>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="P47" s="20">
+        <v>142.41715936265257</v>
+      </c>
+      <c r="Q47" s="20">
+        <f t="shared" si="7"/>
+        <v>-88.282647280927179</v>
+      </c>
+      <c r="R47" s="20">
+        <f t="shared" ref="R47:R67" si="9">O47+h</f>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="S47" s="20">
+        <f>P47+h*Q47</f>
+        <v>133.58889463455986</v>
       </c>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.2">
@@ -10969,153 +11028,1904 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="D48" s="20">
-        <v>10.898423781832381</v>
+        <v>373.01800050575412</v>
       </c>
       <c r="E48" s="20">
-        <f t="shared" si="27"/>
-        <v>-78.898423781832378</v>
+        <f t="shared" si="3"/>
+        <v>-137.5712143506554</v>
       </c>
       <c r="F48" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2000000000000015</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" si="3"/>
-        <v>3.0085814036491429</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+        <f>D48+h*E48</f>
+        <v>359.26087907068859</v>
+      </c>
+      <c r="I48" s="20" cm="1">
+        <f t="array" ref="I48:J48">L47:M47</f>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="J48" s="20">
+        <v>254.03081036715639</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="5"/>
+        <v>-111.02110174386277</v>
+      </c>
+      <c r="L48" s="20">
+        <f t="shared" si="6"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="M48" s="20">
+        <f>J48+h*K48</f>
+        <v>242.92870019277012</v>
+      </c>
+      <c r="O48" s="20" cm="1">
+        <f t="array" ref="O48:P48">R47:S47</f>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="P48" s="20">
+        <v>133.58889463455986</v>
+      </c>
+      <c r="Q48" s="20">
+        <f t="shared" si="7"/>
+        <v>-85.845992769683534</v>
+      </c>
+      <c r="R48" s="20">
+        <f t="shared" si="9"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="S48" s="20">
+        <f>P48+h*Q48</f>
+        <v>125.00429535759152</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="20" cm="1">
         <f t="array" ref="C49:D49">F48:G48</f>
         <v>3.2000000000000015</v>
       </c>
       <c r="D49" s="20">
-        <v>3.0085814036491429</v>
+        <v>359.26087907068859</v>
       </c>
       <c r="E49" s="20">
-        <f t="shared" ref="E49:E50" si="29">-68-(D49^2/G48)</f>
-        <v>-71.008581403649146</v>
+        <f>-68-(D49^2/2000)</f>
+        <v>-132.53418961532196</v>
       </c>
       <c r="F49" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.3000000000000016</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" si="3"/>
-        <v>-4.092276736715772</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+        <f>D49+h*E49</f>
+        <v>346.0074601091564</v>
+      </c>
+      <c r="I49" s="20" cm="1">
+        <f t="array" ref="I49:J49">L48:M48</f>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="J49" s="20">
+        <v>242.92870019277012</v>
+      </c>
+      <c r="K49" s="20">
+        <f>-68-(J49^2/1500)</f>
+        <v>-107.34290225156586</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" si="6"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="M49" s="20">
+        <f>J49+h*K49</f>
+        <v>232.19440996761352</v>
+      </c>
+      <c r="O49" s="20" cm="1">
+        <f t="array" ref="O49:P49">R48:S48</f>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="P49" s="20">
+        <v>125.00429535759152</v>
+      </c>
+      <c r="Q49" s="20">
+        <f t="shared" si="7"/>
+        <v>-83.62607385784797</v>
+      </c>
+      <c r="R49" s="20">
+        <f t="shared" si="9"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="S49" s="20">
+        <f>P49+h*Q49</f>
+        <v>116.64168797180672</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="20" cm="1">
         <f t="array" ref="C50:D50">F49:G49</f>
         <v>3.3000000000000016</v>
       </c>
       <c r="D50" s="20">
-        <v>-4.092276736715772</v>
+        <v>346.0074601091564</v>
       </c>
       <c r="E50" s="20">
-        <f t="shared" si="29"/>
-        <v>-63.907723263284225</v>
+        <f t="shared" si="3"/>
+        <v>-127.86058122559473</v>
       </c>
       <c r="F50" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F50:F94" si="10">C50+h</f>
         <v>3.4000000000000017</v>
       </c>
       <c r="G50" s="20">
+        <f>D50+h*E50</f>
+        <v>333.2214019865969</v>
+      </c>
+      <c r="I50" s="20" cm="1">
+        <f t="array" ref="I50:J50">L49:M49</f>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="J50" s="20">
+        <v>232.19440996761352</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" si="5"/>
+        <v>-103.94282934680545</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" ref="L50:L79" si="11">I50+h</f>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="M50" s="20">
+        <f>J50+h*K50</f>
+        <v>221.80012703293298</v>
+      </c>
+      <c r="O50" s="20" cm="1">
+        <f t="array" ref="O50:P50">R49:S49</f>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="P50" s="20">
+        <v>116.64168797180672</v>
+      </c>
+      <c r="Q50" s="20">
+        <f t="shared" si="7"/>
+        <v>-81.605283372912325</v>
+      </c>
+      <c r="R50" s="20">
+        <f t="shared" si="9"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="S50" s="20">
+        <f>P50+h*Q50</f>
+        <v>108.48115963451548</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C51" s="20" cm="1">
+        <f t="array" ref="C51:D51">F50:G50</f>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="D51" s="20">
+        <v>333.2214019865969</v>
+      </c>
+      <c r="E51" s="20">
         <f t="shared" si="3"/>
-        <v>-10.483049063044195</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+        <v>-123.51825137095661</v>
+      </c>
+      <c r="F51" s="20">
+        <f t="shared" si="10"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="G51" s="20">
+        <f>D51+h*E51</f>
+        <v>320.86957684950124</v>
+      </c>
+      <c r="I51" s="20" cm="1">
+        <f t="array" ref="I51:J51">L50:M50</f>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="J51" s="20">
+        <v>221.80012703293298</v>
+      </c>
+      <c r="K51" s="20">
+        <f t="shared" si="5"/>
+        <v>-100.79686423455013</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" si="11"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="M51" s="20">
+        <f>J51+h*K51</f>
+        <v>211.72044060947798</v>
+      </c>
+      <c r="O51" s="20" cm="1">
+        <f t="array" ref="O51:P51">R50:S50</f>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="P51" s="20">
+        <v>108.48115963451548</v>
+      </c>
+      <c r="Q51" s="20">
+        <f t="shared" si="7"/>
+        <v>-79.768161995649223</v>
+      </c>
+      <c r="R51" s="20">
+        <f t="shared" si="9"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="S51" s="20">
+        <f>P51+h*Q51</f>
+        <v>100.50434343495056</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C52" s="20" cm="1">
+        <f t="array" ref="C52:D52">F51:G51</f>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="D52" s="20">
+        <v>320.86957684950124</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="3"/>
+        <v>-119.47864267378898</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" si="10"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="G52" s="20">
+        <f>D52+h*E52</f>
+        <v>308.92171258212232</v>
+      </c>
+      <c r="I52" s="20" cm="1">
+        <f t="array" ref="I52:J52">L51:M51</f>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="J52" s="20">
+        <v>211.72044060947798</v>
+      </c>
+      <c r="K52" s="20">
+        <f t="shared" si="5"/>
+        <v>-97.88369664791432</v>
+      </c>
+      <c r="L52" s="20">
+        <f t="shared" si="11"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="M52" s="20">
+        <f>J52+h*K52</f>
+        <v>201.93207094468653</v>
+      </c>
+      <c r="O52" s="20" cm="1">
+        <f t="array" ref="O52:P52">R51:S51</f>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="P52" s="20">
+        <v>100.50434343495056</v>
+      </c>
+      <c r="Q52" s="20">
+        <f t="shared" si="7"/>
+        <v>-78.101123049290493</v>
+      </c>
+      <c r="R52" s="20">
+        <f t="shared" si="9"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="S52" s="20">
+        <f>P52+h*Q52</f>
+        <v>92.694231130021507</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C53" s="20" cm="1">
+        <f t="array" ref="C53:D53">F52:G52</f>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="D53" s="20">
+        <v>308.92171258212232</v>
+      </c>
+      <c r="E53" s="20">
+        <f t="shared" si="3"/>
+        <v>-115.7163122523357</v>
+      </c>
+      <c r="F53" s="20">
+        <f t="shared" si="10"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="G53" s="20">
+        <f>D53+h*E53</f>
+        <v>297.35008135688878</v>
+      </c>
+      <c r="I53" s="20" cm="1">
+        <f t="array" ref="I53:J53">L52:M52</f>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="J53" s="20">
+        <v>201.93207094468653</v>
+      </c>
+      <c r="K53" s="20">
+        <f t="shared" si="5"/>
+        <v>-95.1843741840066</v>
+      </c>
+      <c r="L53" s="20">
+        <f t="shared" si="11"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="M53" s="20">
+        <f>J53+h*K53</f>
+        <v>192.41363352628588</v>
+      </c>
+      <c r="O53" s="20" cm="1">
+        <f t="array" ref="O53:P53">R52:S52</f>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="P53" s="20">
+        <v>92.694231130021507</v>
+      </c>
+      <c r="Q53" s="20">
+        <f t="shared" si="7"/>
+        <v>-76.592220484785855</v>
+      </c>
+      <c r="R53" s="20">
+        <f t="shared" si="9"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="S53" s="20">
+        <f>P53+h*Q53</f>
+        <v>85.035009081542924</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C54" s="20" cm="1">
+        <f t="array" ref="C54:D54">F53:G53</f>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="D54" s="20">
+        <v>297.35008135688878</v>
+      </c>
+      <c r="E54" s="20">
+        <f t="shared" si="3"/>
+        <v>-112.2085354414742</v>
+      </c>
+      <c r="F54" s="20">
+        <f t="shared" si="10"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="G54" s="20">
+        <f>D54+h*E54</f>
+        <v>286.12922781274136</v>
+      </c>
+      <c r="I54" s="20" cm="1">
+        <f t="array" ref="I54:J54">L53:M53</f>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="J54" s="20">
+        <v>192.41363352628588</v>
+      </c>
+      <c r="K54" s="20">
+        <f t="shared" si="5"/>
+        <v>-92.682004244525231</v>
+      </c>
+      <c r="L54" s="20">
+        <f t="shared" si="11"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="M54" s="20">
+        <f>J54+h*K54</f>
+        <v>183.14543310183336</v>
+      </c>
+      <c r="O54" s="20" cm="1">
+        <f t="array" ref="O54:P54">R53:S53</f>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="P54" s="20">
+        <v>85.035009081542924</v>
+      </c>
+      <c r="Q54" s="20">
+        <f t="shared" si="7"/>
+        <v>-75.230952769498089</v>
+      </c>
+      <c r="R54" s="20">
+        <f t="shared" si="9"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="S54" s="20">
+        <f>P54+h*Q54</f>
+        <v>77.511913804593121</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C55" s="20" cm="1">
+        <f t="array" ref="C55:D55">F54:G54</f>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="D55" s="20">
+        <v>286.12922781274136</v>
+      </c>
+      <c r="E55" s="20">
+        <f t="shared" si="3"/>
+        <v>-108.93496750435781</v>
+      </c>
+      <c r="F55" s="20">
+        <f t="shared" si="10"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="G55" s="20">
+        <f>D55+h*E55</f>
+        <v>275.2357310623056</v>
+      </c>
+      <c r="I55" s="20" cm="1">
+        <f t="array" ref="I55:J55">L54:M54</f>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="J55" s="20">
+        <v>183.14543310183336</v>
+      </c>
+      <c r="K55" s="20">
+        <f t="shared" si="5"/>
+        <v>-90.361499777372075</v>
+      </c>
+      <c r="L55" s="20">
+        <f t="shared" si="11"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="M55" s="20">
+        <f>J55+h*K55</f>
+        <v>174.10928312409615</v>
+      </c>
+      <c r="O55" s="20" cm="1">
+        <f t="array" ref="O55:P55">R54:S54</f>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="P55" s="20">
+        <v>77.511913804593121</v>
+      </c>
+      <c r="Q55" s="20">
+        <f t="shared" si="7"/>
+        <v>-74.008096781650679</v>
+      </c>
+      <c r="R55" s="20">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="S55" s="20">
+        <f>P55+h*Q55</f>
+        <v>70.111104126428046</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C56" s="20" cm="1">
+        <f t="array" ref="C56:D56">F55:G55</f>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="D56" s="20">
+        <v>275.2357310623056</v>
+      </c>
+      <c r="E56" s="20">
+        <f t="shared" si="3"/>
+        <v>-105.8773538267009</v>
+      </c>
+      <c r="F56" s="20">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="G56" s="20">
+        <f>D56+h*E56</f>
+        <v>264.64799567963553</v>
+      </c>
+      <c r="I56" s="20" cm="1">
+        <f t="array" ref="I56:J56">L55:M55</f>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="J56" s="20">
+        <v>174.10928312409615</v>
+      </c>
+      <c r="K56" s="20">
+        <f t="shared" si="5"/>
+        <v>-88.209361646657783</v>
+      </c>
+      <c r="L56" s="20">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="M56" s="20">
+        <f>J56+h*K56</f>
+        <v>165.28834695943038</v>
+      </c>
+      <c r="O56" s="20" cm="1">
+        <f t="array" ref="O56:P56">R55:S55</f>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="P56" s="20">
+        <v>70.111104126428046</v>
+      </c>
+      <c r="Q56" s="20">
+        <f t="shared" si="7"/>
+        <v>-72.915566921826837</v>
+      </c>
+      <c r="R56" s="20">
+        <f t="shared" si="9"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="S56" s="20">
+        <f>P56+h*Q56</f>
+        <v>62.819547434245365</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C57" s="20" cm="1">
+        <f t="array" ref="C57:D57">F56:G56</f>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="D57" s="20">
+        <v>264.64799567963553</v>
+      </c>
+      <c r="E57" s="20">
+        <f t="shared" si="3"/>
+        <v>-103.01928080862419</v>
+      </c>
+      <c r="F57" s="20">
+        <f t="shared" si="10"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="G57" s="20">
+        <f>D57+h*E57</f>
+        <v>254.34606759877312</v>
+      </c>
+      <c r="I57" s="20" cm="1">
+        <f t="array" ref="I57:J57">L56:M56</f>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="J57" s="20">
+        <v>165.28834695943038</v>
+      </c>
+      <c r="K57" s="20">
+        <f t="shared" si="5"/>
+        <v>-86.213491760387356</v>
+      </c>
+      <c r="L57" s="20">
+        <f t="shared" si="11"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="M57" s="20">
+        <f>J57+h*K57</f>
+        <v>156.66699778339165</v>
+      </c>
+      <c r="O57" s="20" cm="1">
+        <f t="array" ref="O57:P57">R56:S56</f>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="P57" s="20">
+        <v>62.819547434245365</v>
+      </c>
+      <c r="Q57" s="20">
+        <f t="shared" si="7"/>
+        <v>-71.946295539843405</v>
+      </c>
+      <c r="R57" s="20">
+        <f t="shared" si="9"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="S57" s="20">
+        <f>P57+h*Q57</f>
+        <v>55.624917880261023</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C58" s="20" cm="1">
+        <f t="array" ref="C58:D58">F57:G57</f>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="D58" s="20">
+        <v>254.34606759877312</v>
+      </c>
+      <c r="E58" s="20">
+        <f t="shared" si="3"/>
+        <v>-100.34596105147983</v>
+      </c>
+      <c r="F58" s="20">
+        <f t="shared" si="10"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="G58" s="20">
+        <f>D58+h*E58</f>
+        <v>244.31147149362513</v>
+      </c>
+      <c r="I58" s="20" cm="1">
+        <f t="array" ref="I58:J58">L57:M57</f>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="J58" s="20">
+        <v>156.66699778339165</v>
+      </c>
+      <c r="K58" s="20">
+        <f>-68-(J58^2/1500)</f>
+        <v>-84.363032129640828</v>
+      </c>
+      <c r="L58" s="20">
+        <f t="shared" si="11"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="M58" s="20">
+        <f>J58+h*K58</f>
+        <v>148.23069457042757</v>
+      </c>
+      <c r="O58" s="20" cm="1">
+        <f t="array" ref="O58:P58">R57:S57</f>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="P58" s="20">
+        <v>55.624917880261023</v>
+      </c>
+      <c r="Q58" s="20">
+        <f t="shared" si="7"/>
+        <v>-71.094131489185784</v>
+      </c>
+      <c r="R58" s="20">
+        <f t="shared" si="9"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="S58" s="20">
+        <f>P58+h*Q58</f>
+        <v>48.515504731342446</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C59" s="20" cm="1">
+        <f t="array" ref="C59:D59">F58:G58</f>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="D59" s="20">
+        <v>244.31147149362513</v>
+      </c>
+      <c r="E59" s="20">
+        <f>-68-(D59^2/2000)</f>
+        <v>-97.84404755169021</v>
+      </c>
+      <c r="F59" s="20">
+        <f t="shared" si="10"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="G59" s="20">
+        <f>D59+h*E59</f>
+        <v>234.52706673845611</v>
+      </c>
+      <c r="I59" s="20" cm="1">
+        <f t="array" ref="I59:J59">L58:M58</f>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="J59" s="20">
+        <v>148.23069457042757</v>
+      </c>
+      <c r="K59" s="20">
+        <f t="shared" si="5"/>
+        <v>-82.64822587522093</v>
+      </c>
+      <c r="L59" s="20">
+        <f t="shared" si="11"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="M59" s="20">
+        <f>J59+h*K59</f>
+        <v>139.96587198290547</v>
+      </c>
+      <c r="O59" s="20" cm="1">
+        <f t="array" ref="O59:P59">R58:S58</f>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="P59" s="20">
+        <v>48.515504731342446</v>
+      </c>
+      <c r="Q59" s="20">
+        <f t="shared" si="7"/>
+        <v>-70.353754199336905</v>
+      </c>
+      <c r="R59" s="20">
+        <f t="shared" si="9"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="S59" s="20">
+        <f>P59+h*Q59</f>
+        <v>41.480129311408753</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C60" s="20" cm="1">
+        <f t="array" ref="C60:D60">F59:G59</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="D60" s="20">
+        <v>234.52706673845611</v>
+      </c>
+      <c r="E60" s="20">
+        <f t="shared" si="3"/>
+        <v>-95.50147251647212</v>
+      </c>
+      <c r="F60" s="20">
+        <f t="shared" si="10"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G60" s="20">
+        <f>D60+h*E60</f>
+        <v>224.9769194868089</v>
+      </c>
+      <c r="I60" s="20" cm="1">
+        <f t="array" ref="I60:J60">L59:M59</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="J60" s="20">
+        <v>139.96587198290547</v>
+      </c>
+      <c r="K60" s="20">
+        <f t="shared" si="5"/>
+        <v>-81.060296879956724</v>
+      </c>
+      <c r="L60" s="20">
+        <f t="shared" si="11"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M60" s="20">
+        <f>J60+h*K60</f>
+        <v>131.85984229490981</v>
+      </c>
+      <c r="O60" s="20" cm="1">
+        <f t="array" ref="O60:P60">R59:S59</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="P60" s="20">
+        <v>41.480129311408753</v>
+      </c>
+      <c r="Q60" s="20">
+        <f t="shared" si="7"/>
+        <v>-69.720601127691197</v>
+      </c>
+      <c r="R60" s="20">
+        <f t="shared" si="9"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S60" s="20">
+        <f>P60+h*Q60</f>
+        <v>34.508069198639632</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C61" s="20" cm="1">
+        <f t="array" ref="C61:D61">F60:G60</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D61" s="20">
+        <v>224.9769194868089</v>
+      </c>
+      <c r="E61" s="20">
+        <f t="shared" si="3"/>
+        <v>-93.307307150887041</v>
+      </c>
+      <c r="F61" s="20">
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+      <c r="G61" s="20">
+        <f>D61+h*E61</f>
+        <v>215.6461887717202</v>
+      </c>
+      <c r="I61" s="20" cm="1">
+        <f t="array" ref="I61:J61">L60:M60</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J61" s="20">
+        <v>131.85984229490981</v>
+      </c>
+      <c r="K61" s="20">
+        <f t="shared" si="5"/>
+        <v>-79.591345340025654</v>
+      </c>
+      <c r="L61" s="20">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="M61" s="20">
+        <f>J61+h*K61</f>
+        <v>123.90070776090724</v>
+      </c>
+      <c r="O61" s="20" cm="1">
+        <f t="array" ref="O61:P61">R60:S60</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P61" s="20">
+        <v>34.508069198639632</v>
+      </c>
+      <c r="Q61" s="20">
+        <f t="shared" si="7"/>
+        <v>-69.190806839818094</v>
+      </c>
+      <c r="R61" s="20">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="S61" s="20">
+        <f>P61+h*Q61</f>
+        <v>27.588988514657821</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C62" s="20" cm="1">
+        <f t="array" ref="C62:D62">F61:G61</f>
+        <v>4.5</v>
+      </c>
+      <c r="D62" s="20">
+        <v>215.6461887717202</v>
+      </c>
+      <c r="E62" s="20">
+        <f t="shared" si="3"/>
+        <v>-91.251639365884188</v>
+      </c>
+      <c r="F62" s="20">
+        <f t="shared" si="10"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G62" s="20">
+        <f>D62+h*E62</f>
+        <v>206.52102483513178</v>
+      </c>
+      <c r="I62" s="20" cm="1">
+        <f t="array" ref="I62:J62">L61:M61</f>
+        <v>4.5</v>
+      </c>
+      <c r="J62" s="20">
+        <v>123.90070776090724</v>
+      </c>
+      <c r="K62" s="20">
+        <f t="shared" si="5"/>
+        <v>-78.234256922435833</v>
+      </c>
+      <c r="L62" s="20">
+        <f t="shared" si="11"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M62" s="20">
+        <f>J62+h*K62</f>
+        <v>116.07728206866365</v>
+      </c>
+      <c r="O62" s="20" cm="1">
+        <f t="array" ref="O62:P62">R61:S61</f>
+        <v>4.5</v>
+      </c>
+      <c r="P62" s="20">
+        <v>27.588988514657821</v>
+      </c>
+      <c r="Q62" s="20">
+        <f t="shared" si="7"/>
+        <v>-68.761152287261922</v>
+      </c>
+      <c r="R62" s="20">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S62" s="20">
+        <f>P62+h*Q62</f>
+        <v>20.712873285931629</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C63" s="20" cm="1">
+        <f t="array" ref="C63:D63">F62:G62</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D63" s="20">
+        <v>206.52102483513178</v>
+      </c>
+      <c r="E63" s="20">
+        <f t="shared" si="3"/>
+        <v>-89.325466849476555</v>
+      </c>
+      <c r="F63" s="20">
+        <f t="shared" si="10"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="G63" s="20">
+        <f>D63+h*E63</f>
+        <v>197.58847815018413</v>
+      </c>
+      <c r="I63" s="20" cm="1">
+        <f t="array" ref="I63:J63">L62:M62</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J63" s="20">
+        <v>116.07728206866365</v>
+      </c>
+      <c r="K63" s="20">
+        <f t="shared" si="5"/>
+        <v>-76.982623608298738</v>
+      </c>
+      <c r="L63" s="20">
+        <f t="shared" si="11"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="M63" s="20">
+        <f>J63+h*K63</f>
+        <v>108.37901970783378</v>
+      </c>
+      <c r="O63" s="20" cm="1">
+        <f t="array" ref="O63:P63">R62:S62</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P63" s="20">
+        <v>20.712873285931629</v>
+      </c>
+      <c r="Q63" s="20">
+        <f t="shared" si="7"/>
+        <v>-68.429023119759066</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" si="9"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="S63" s="20">
+        <f>P63+h*Q63</f>
+        <v>13.869970973955722</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C64" s="20" cm="1">
+        <f t="array" ref="C64:D64">F63:G63</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="D64" s="20">
+        <v>197.58847815018413</v>
+      </c>
+      <c r="E64" s="20">
+        <f t="shared" si="3"/>
+        <v>-87.520603348852887</v>
+      </c>
+      <c r="F64" s="20">
+        <f t="shared" si="10"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="G64" s="20">
+        <f>D64+h*E64</f>
+        <v>188.83641781529883</v>
+      </c>
+      <c r="I64" s="20" cm="1">
+        <f t="array" ref="I64:J64">L63:M63</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="J64" s="20">
+        <v>108.37901970783378</v>
+      </c>
+      <c r="K64" s="20">
+        <f t="shared" si="5"/>
+        <v>-75.83067460855402</v>
+      </c>
+      <c r="L64" s="20">
+        <f t="shared" si="11"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="M64" s="20">
+        <f>J64+h*K64</f>
+        <v>100.79595224697837</v>
+      </c>
+      <c r="O64" s="20" cm="1">
+        <f t="array" ref="O64:P64">R63:S63</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="P64" s="20">
+        <v>13.869970973955722</v>
+      </c>
+      <c r="Q64" s="20">
+        <f>-68-(P64^2/1000)</f>
+        <v>-68.192376094818371</v>
+      </c>
+      <c r="R64" s="20">
+        <f t="shared" si="9"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="S64" s="20">
+        <f>P64+h*Q64</f>
+        <v>7.0507333644738841</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C65" s="20" cm="1">
+        <f t="array" ref="C65:D65">F64:G64</f>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="D65" s="20">
+        <v>188.83641781529883</v>
+      </c>
+      <c r="E65" s="20">
+        <f t="shared" si="3"/>
+        <v>-85.829596346657056</v>
+      </c>
+      <c r="F65" s="20">
+        <f t="shared" si="10"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="G65" s="20">
+        <f>D65+h*E65</f>
+        <v>180.25345818063312</v>
+      </c>
+      <c r="I65" s="20" cm="1">
+        <f t="array" ref="I65:J65">L64:M64</f>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="J65" s="20">
+        <v>100.79595224697837</v>
+      </c>
+      <c r="K65" s="20">
+        <f t="shared" si="5"/>
+        <v>-74.773215992916761</v>
+      </c>
+      <c r="L65" s="20">
+        <f t="shared" si="11"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="M65" s="20">
+        <f>J65+h*K65</f>
+        <v>93.318630647686703</v>
+      </c>
+      <c r="O65" s="20" cm="1">
+        <f t="array" ref="O65:P65">R64:S64</f>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="P65" s="20">
+        <v>7.0507333644738841</v>
+      </c>
+      <c r="Q65" s="20">
+        <f t="shared" si="7"/>
+        <v>-68.049712840976909</v>
+      </c>
+      <c r="R65" s="20">
+        <f t="shared" si="9"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="S65" s="20">
+        <f>P65+h*Q65</f>
+        <v>0.24576208037619285</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C66" s="20" cm="1">
+        <f t="array" ref="C66:D66">F65:G65</f>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="D66" s="20">
+        <v>180.25345818063312</v>
+      </c>
+      <c r="E66" s="20">
+        <f t="shared" si="3"/>
+        <v>-84.245654593038623</v>
+      </c>
+      <c r="F66" s="20">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="G66" s="20">
+        <f>D66+h*E66</f>
+        <v>171.82889272132925</v>
+      </c>
+      <c r="I66" s="20" cm="1">
+        <f t="array" ref="I66:J66">L65:M65</f>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="J66" s="20">
+        <v>93.318630647686703</v>
+      </c>
+      <c r="K66" s="20">
+        <f t="shared" si="5"/>
+        <v>-73.805577883972916</v>
+      </c>
+      <c r="L66" s="20">
+        <f t="shared" si="11"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="M66" s="20">
+        <f>J66+h*K66</f>
+        <v>85.938072859289406</v>
+      </c>
+      <c r="O66" s="20" cm="1">
+        <f t="array" ref="O66:P66">R65:S65</f>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="P66" s="20">
+        <v>0.24576208037619285</v>
+      </c>
+      <c r="Q66" s="20">
+        <f t="shared" si="7"/>
+        <v>-68.000060399000148</v>
+      </c>
+      <c r="R66" s="20">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="S66" s="20">
+        <f>P66+h*Q66</f>
+        <v>-6.5542439595238227</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C67" s="20" cm="1">
+        <f t="array" ref="C67:D67">F66:G66</f>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="D67" s="20">
+        <v>171.82889272132925</v>
+      </c>
+      <c r="E67" s="20">
+        <f t="shared" si="3"/>
+        <v>-82.762584186919042</v>
+      </c>
+      <c r="F67" s="20">
+        <f t="shared" si="10"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="G67" s="20">
+        <f>D67+h*E67</f>
+        <v>163.55263430263736</v>
+      </c>
+      <c r="I67" s="20" cm="1">
+        <f t="array" ref="I67:J67">L66:M66</f>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="J67" s="20">
+        <v>85.938072859289406</v>
+      </c>
+      <c r="K67" s="20">
+        <f t="shared" si="5"/>
+        <v>-72.923568244512353</v>
+      </c>
+      <c r="L67" s="20">
+        <f t="shared" si="11"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="M67" s="20">
+        <f>J67+h*K67</f>
+        <v>78.645716034838173</v>
+      </c>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="20" cm="1">
+        <f t="array" ref="C68:D68">F67:G67</f>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="D68" s="20">
+        <v>163.55263430263736</v>
+      </c>
+      <c r="E68" s="20">
+        <f t="shared" si="3"/>
+        <v>-81.374732093666111</v>
+      </c>
+      <c r="F68" s="20">
+        <f t="shared" si="10"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="G68" s="20">
+        <f>D68+h*E68</f>
+        <v>155.41516109327074</v>
+      </c>
+      <c r="I68" s="20" cm="1">
+        <f t="array" ref="I68:J68">L67:M67</f>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="J68" s="20">
+        <v>78.645716034838173</v>
+      </c>
+      <c r="K68" s="20">
+        <f t="shared" si="5"/>
+        <v>-72.123432433754928</v>
+      </c>
+      <c r="L68" s="20">
+        <f t="shared" si="11"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="M68" s="20">
+        <f>J68+h*K68</f>
+        <v>71.433372791462688</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C69" s="20" cm="1">
+        <f t="array" ref="C69:D69">F68:G68</f>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="D69" s="20">
+        <v>155.41516109327074</v>
+      </c>
+      <c r="E69" s="20">
+        <f t="shared" si="3"/>
+        <v>-80.076936148823648</v>
+      </c>
+      <c r="F69" s="20">
+        <f t="shared" si="10"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="G69" s="20">
+        <f>D69+h*E69</f>
+        <v>147.40746747838838</v>
+      </c>
+      <c r="I69" s="20" cm="1">
+        <f t="array" ref="I69:J69">L68:M68</f>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="J69" s="20">
+        <v>71.433372791462688</v>
+      </c>
+      <c r="K69" s="20">
+        <f t="shared" si="5"/>
+        <v>-71.401817832242727</v>
+      </c>
+      <c r="L69" s="20">
+        <f t="shared" si="11"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="M69" s="20">
+        <f>J69+h*K69</f>
+        <v>64.293191008238409</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C70" s="20" cm="1">
+        <f t="array" ref="C70:D70">F69:G69</f>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="D70" s="20">
+        <v>147.40746747838838</v>
+      </c>
+      <c r="E70" s="20">
+        <f t="shared" si="3"/>
+        <v>-78.864480734196064</v>
+      </c>
+      <c r="F70" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="G70" s="20">
+        <f>D70+h*E70</f>
+        <v>139.52101940496877</v>
+      </c>
+      <c r="I70" s="20" cm="1">
+        <f t="array" ref="I70:J70">L69:M69</f>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="J70" s="20">
+        <v>64.293191008238409</v>
+      </c>
+      <c r="K70" s="20">
+        <f>-68-(J70^2/1500)</f>
+        <v>-70.755742940014557</v>
+      </c>
+      <c r="L70" s="20">
+        <f t="shared" si="11"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="M70" s="20">
+        <f>J70+h*K70</f>
+        <v>57.217616714236954</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C71" s="20" cm="1">
+        <f t="array" ref="C71:D71">F70:G70</f>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="D71" s="20">
+        <v>139.52101940496877</v>
+      </c>
+      <c r="E71" s="20">
+        <f t="shared" si="3"/>
+        <v>-77.733057427900832</v>
+      </c>
+      <c r="F71" s="20">
+        <f t="shared" si="10"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="G71" s="20">
+        <f>D71+h*E71</f>
+        <v>131.74771366217868</v>
+      </c>
+      <c r="I71" s="20" cm="1">
+        <f t="array" ref="I71:J71">L70:M70</f>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="J71" s="20">
+        <v>57.217616714236954</v>
+      </c>
+      <c r="K71" s="20">
+        <f t="shared" si="5"/>
+        <v>-70.182570441638219</v>
+      </c>
+      <c r="L71" s="20">
+        <f t="shared" si="11"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="M71" s="20">
+        <f>J71+h*K71</f>
+        <v>50.199359670073129</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C72" s="20" cm="1">
+        <f t="array" ref="C72:D72">F71:G71</f>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="D72" s="20">
+        <v>131.74771366217868</v>
+      </c>
+      <c r="E72" s="20">
+        <f t="shared" si="3"/>
+        <v>-76.67873002760571</v>
+      </c>
+      <c r="F72" s="20">
+        <f t="shared" si="10"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="G72" s="20">
+        <f>D72+h*E72</f>
+        <v>124.07984065941811</v>
+      </c>
+      <c r="I72" s="20" cm="1">
+        <f t="array" ref="I72:J72">L71:M71</f>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="J72" s="20">
+        <v>50.199359670073129</v>
+      </c>
+      <c r="K72" s="20">
+        <f t="shared" si="5"/>
+        <v>-69.67998380752357</v>
+      </c>
+      <c r="L72" s="20">
+        <f t="shared" si="11"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="M72" s="20">
+        <f>J72+h*K72</f>
+        <v>43.231361289320773</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="20" cm="1">
+        <f t="array" ref="C73:D73">F72:G72</f>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="D73" s="20">
+        <v>124.07984065941811</v>
+      </c>
+      <c r="E73" s="20">
+        <f t="shared" si="3"/>
+        <v>-75.697903429033289</v>
+      </c>
+      <c r="F73" s="20">
+        <f t="shared" si="10"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="G73" s="20">
+        <f>D73+h*E73</f>
+        <v>116.51005031651478</v>
+      </c>
+      <c r="I73" s="20" cm="1">
+        <f t="array" ref="I73:J73">L72:M72</f>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="J73" s="20">
+        <v>43.231361289320773</v>
+      </c>
+      <c r="K73" s="20">
+        <f t="shared" si="5"/>
+        <v>-69.245967065951859</v>
+      </c>
+      <c r="L73" s="20">
+        <f t="shared" si="11"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="M73" s="20">
+        <f>J73+h*K73</f>
+        <v>36.306764582725584</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C74" s="20" cm="1">
+        <f t="array" ref="C74:D74">F73:G73</f>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="D74" s="20">
+        <v>116.51005031651478</v>
+      </c>
+      <c r="E74" s="20">
+        <f t="shared" si="3"/>
+        <v>-74.787295912378397</v>
+      </c>
+      <c r="F74" s="20">
+        <f t="shared" si="10"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="G74" s="20">
+        <f>D74+h*E74</f>
+        <v>109.03132072527694</v>
+      </c>
+      <c r="I74" s="20" cm="1">
+        <f t="array" ref="I74:J74">L73:M73</f>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="J74" s="20">
+        <v>36.306764582725584</v>
+      </c>
+      <c r="K74" s="20">
+        <f t="shared" si="5"/>
+        <v>-68.878787436310304</v>
+      </c>
+      <c r="L74" s="20">
+        <f t="shared" si="11"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="M74" s="20">
+        <f>J74+h*K74</f>
+        <v>29.418885839094553</v>
+      </c>
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C75" s="20" cm="1">
+        <f t="array" ref="C75:D75">F74:G74</f>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="D75" s="20">
+        <v>109.03132072527694</v>
+      </c>
+      <c r="E75" s="20">
+        <f t="shared" si="3"/>
+        <v>-73.943914449549098</v>
+      </c>
+      <c r="F75" s="20">
+        <f t="shared" si="10"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="G75" s="20">
+        <f>D75+h*E75</f>
+        <v>101.63692928032204</v>
+      </c>
+      <c r="I75" s="20" cm="1">
+        <f t="array" ref="I75:J75">L74:M74</f>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="J75" s="20">
+        <v>29.418885839094553</v>
+      </c>
+      <c r="K75" s="20">
+        <f t="shared" si="5"/>
+        <v>-68.576980562675786</v>
+      </c>
+      <c r="L75" s="20">
+        <f t="shared" si="11"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="M75" s="20">
+        <f>J75+h*K75</f>
+        <v>22.561187782826973</v>
+      </c>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C76" s="20" cm="1">
+        <f t="array" ref="C76:D76">F75:G75</f>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="D76" s="20">
+        <v>101.63692928032204</v>
+      </c>
+      <c r="E76" s="20">
+        <f t="shared" si="3"/>
+        <v>-73.165032696766588</v>
+      </c>
+      <c r="F76" s="20">
+        <f t="shared" si="10"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="G76" s="20">
+        <f>D76+h*E76</f>
+        <v>94.320426010645377</v>
+      </c>
+      <c r="I76" s="20" cm="1">
+        <f t="array" ref="I76:J76">L75:M75</f>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="J76" s="20">
+        <v>22.561187782826973</v>
+      </c>
+      <c r="K76" s="20">
+        <f t="shared" si="5"/>
+        <v>-68.339338129447981</v>
+      </c>
+      <c r="L76" s="20">
+        <f t="shared" si="11"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="M76" s="20">
+        <f>J76+h*K76</f>
+        <v>15.727253969882174</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C77" s="20" cm="1">
+        <f t="array" ref="C77:D77">F76:G76</f>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="D77" s="20">
+        <v>94.320426010645377</v>
+      </c>
+      <c r="E77" s="20">
+        <f>-68-(D77^2/2000)</f>
+        <v>-72.448171381414809</v>
+      </c>
+      <c r="F77" s="20">
+        <f t="shared" si="10"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="G77" s="20">
+        <f>D77+h*E77</f>
+        <v>87.075608872503892</v>
+      </c>
+      <c r="I77" s="20" cm="1">
+        <f t="array" ref="I77:J77">L76:M76</f>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="J77" s="20">
+        <v>15.727253969882174</v>
+      </c>
+      <c r="K77" s="20">
+        <f t="shared" si="5"/>
+        <v>-68.164897678288781</v>
+      </c>
+      <c r="L77" s="20">
+        <f t="shared" si="11"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="M77" s="20">
+        <f>J77+h*K77</f>
+        <v>8.9107642020532953</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C78" s="20" cm="1">
+        <f t="array" ref="C78:D78">F77:G77</f>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="D78" s="20">
+        <v>87.075608872503892</v>
+      </c>
+      <c r="E78" s="20">
+        <f t="shared" si="3"/>
+        <v>-71.791080830258636</v>
+      </c>
+      <c r="F78" s="20">
+        <f t="shared" si="10"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="G78" s="20">
+        <f>D78+h*E78</f>
+        <v>79.896500789478026</v>
+      </c>
+      <c r="I78" s="20" cm="1">
+        <f t="array" ref="I78:J78">L77:M77</f>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="J78" s="20">
+        <v>8.9107642020532953</v>
+      </c>
+      <c r="K78" s="20">
+        <f t="shared" si="5"/>
+        <v>-68.052934479109723</v>
+      </c>
+      <c r="L78" s="20">
+        <f t="shared" si="11"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="M78" s="20">
+        <f>J78+h*K78</f>
+        <v>2.1054707541423223</v>
+      </c>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C79" s="20" cm="1">
+        <f t="array" ref="C79:D79">F78:G78</f>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="D79" s="20">
+        <v>79.896500789478026</v>
+      </c>
+      <c r="E79" s="20">
+        <f t="shared" si="3"/>
+        <v>-71.191725419201532</v>
+      </c>
+      <c r="F79" s="20">
+        <f t="shared" si="10"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="G79" s="20">
+        <f>D79+h*E79</f>
+        <v>72.777328247557875</v>
+      </c>
+      <c r="I79" s="20" cm="1">
+        <f t="array" ref="I79:J79">L78:M78</f>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="J79" s="20">
+        <v>2.1054707541423223</v>
+      </c>
+      <c r="K79" s="20">
+        <f t="shared" si="5"/>
+        <v>-68.002955338064368</v>
+      </c>
+      <c r="L79" s="20">
+        <f t="shared" si="11"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="M79" s="20">
+        <f>J79+h*K79</f>
+        <v>-4.6948247796641152</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C80" s="20" cm="1">
+        <f t="array" ref="C80:D80">F79:G79</f>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="D80" s="20">
+        <v>72.777328247557875</v>
+      </c>
+      <c r="E80" s="20">
+        <f t="shared" si="3"/>
+        <v>-70.648269753426391</v>
+      </c>
+      <c r="F80" s="20">
+        <f t="shared" si="10"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="G80" s="20">
+        <f>D80+h*E80</f>
+        <v>65.712501272215235</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C81" s="20" cm="1">
+        <f t="array" ref="C81:D81">F80:G80</f>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="D81" s="20">
+        <v>65.712501272215235</v>
+      </c>
+      <c r="E81" s="20">
+        <f t="shared" si="3"/>
+        <v>-70.159066411725448</v>
+      </c>
+      <c r="F81" s="20">
+        <f t="shared" si="10"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="G81" s="20">
+        <f>D81+h*E81</f>
+        <v>58.696594631042686</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C82" s="20" cm="1">
+        <f t="array" ref="C82:D82">F81:G81</f>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="D82" s="20">
+        <v>58.696594631042686</v>
+      </c>
+      <c r="E82" s="20">
+        <f t="shared" si="3"/>
+        <v>-69.722645110640471</v>
+      </c>
+      <c r="F82" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="G82" s="20">
+        <f>D82+h*E82</f>
+        <v>51.724330119978639</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C83" s="20" cm="1">
+        <f t="array" ref="C83:D83">F82:G82</f>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="D83" s="20">
+        <v>51.724330119978639</v>
+      </c>
+      <c r="E83" s="20">
+        <f t="shared" si="3"/>
+        <v>-69.337703163180265</v>
+      </c>
+      <c r="F83" s="20">
+        <f t="shared" si="10"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="G83" s="20">
+        <f>D83+h*E83</f>
+        <v>44.790559803660614</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C84" s="20" cm="1">
+        <f t="array" ref="C84:D84">F83:G83</f>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="D84" s="20">
+        <v>44.790559803660614</v>
+      </c>
+      <c r="E84" s="20">
+        <f t="shared" si="3"/>
+        <v>-69.003097123762643</v>
+      </c>
+      <c r="F84" s="20">
+        <f t="shared" si="10"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="G84" s="20">
+        <f>D84+h*E84</f>
+        <v>37.890250091284351</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C85" s="20" cm="1">
+        <f t="array" ref="C85:D85">F84:G84</f>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="D85" s="20">
+        <v>37.890250091284351</v>
+      </c>
+      <c r="E85" s="20">
+        <f t="shared" si="3"/>
+        <v>-68.71783552599004</v>
+      </c>
+      <c r="F85" s="20">
+        <f t="shared" si="10"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="G85" s="20">
+        <f>D85+h*E85</f>
+        <v>31.018466538685345</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C86" s="20" cm="1">
+        <f t="array" ref="C86:D86">F85:G85</f>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="D86" s="20">
+        <v>31.018466538685345</v>
+      </c>
+      <c r="E86" s="20">
+        <f t="shared" si="3"/>
+        <v>-68.48107263320577</v>
+      </c>
+      <c r="F86" s="20">
+        <f t="shared" si="10"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="G86" s="20">
+        <f>D86+h*E86</f>
+        <v>24.170359275364767</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C87" s="20" cm="1">
+        <f t="array" ref="C87:D87">F86:G86</f>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="D87" s="20">
+        <v>24.170359275364767</v>
+      </c>
+      <c r="E87" s="20">
+        <f t="shared" si="3"/>
+        <v>-68.292103133750103</v>
+      </c>
+      <c r="F87" s="20">
+        <f t="shared" si="10"/>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="G87" s="20">
+        <f>D87+h*E87</f>
+        <v>17.341148961989756</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C88" s="20" cm="1">
+        <f t="array" ref="C88:D88">F87:G87</f>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="D88" s="20">
+        <v>17.341148961989756</v>
+      </c>
+      <c r="E88" s="20">
+        <f t="shared" si="3"/>
+        <v>-68.15035772366096</v>
+      </c>
+      <c r="F88" s="20">
+        <f t="shared" si="10"/>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="G88" s="20">
+        <f>D88+h*E88</f>
+        <v>10.526113189623659</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C89" s="20" cm="1">
+        <f t="array" ref="C89:D89">F88:G88</f>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="D89" s="20">
+        <v>10.526113189623659</v>
+      </c>
+      <c r="E89" s="20">
+        <f t="shared" si="3"/>
+        <v>-68.055399529440379</v>
+      </c>
+      <c r="F89" s="20">
+        <f t="shared" si="10"/>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="G89" s="20">
+        <f>D89+h*E89</f>
+        <v>3.7205732366796216</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C90" s="20" cm="1">
+        <f t="array" ref="C90:D90">F89:G89</f>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="D90" s="20">
+        <v>3.7205732366796216</v>
+      </c>
+      <c r="E90" s="20">
+        <f>-68-(D90^2/2000)</f>
+        <v>-68.006921332604747</v>
+      </c>
+      <c r="F90" s="20">
+        <f t="shared" si="10"/>
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="G90" s="20">
+        <f>D90+h*E90</f>
+        <v>-3.0801188965808537</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11126,4 +12936,814 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C1E5D5-FF3D-4A88-B220-312A0D281C8B}">
+  <dimension ref="C11:W63"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="20">
+        <v>1500</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="P12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="I14" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="O14" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f>E11</f>
+        <v>2000</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <f>K11</f>
+        <v>1500</v>
+      </c>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <f>Q11</f>
+        <v>1000</v>
+      </c>
+      <c r="U16" s="24"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C17" s="20" cm="1">
+        <f t="array" ref="C17:D17">F16:G16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="O14:S14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>